--- a/100runs/run066/NotionalETEOutput066.xlsx
+++ b/100runs/run066/NotionalETEOutput066.xlsx
@@ -49,28 +49,28 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>MISSILE_BRAVER_3.MISSILE_BRAVER_3</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_334.MISSILE_HELLMASKER_334</t>
+    <t>MISSILE_HELLMASKER_332.MISSILE_HELLMASKER_332</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_482.MISSILE_BRAVER_482</t>
+    <t>MISSILE_HELLMASKER_51.MISSILE_HELLMASKER_51</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_463.MISSILE_HELLMASKER_463</t>
+    <t>MISSILE_HELLMASKER_401.MISSILE_HELLMASKER_401</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_197.MISSILE_BRAVER_197</t>
+    <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -486,22 +486,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>312.0370797749354</v>
+        <v>1116578.931147295</v>
       </c>
       <c r="G2">
-        <v>-111.2590670102797</v>
+        <v>4841128.006333176</v>
       </c>
       <c r="H2">
-        <v>693.0736115550365</v>
+        <v>3985237.526447852</v>
       </c>
       <c r="I2">
-        <v>-2181.433775033051</v>
+        <v>1114859.608652158</v>
       </c>
       <c r="J2">
-        <v>2497.98195124617</v>
+        <v>4843231.376411625</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984369.6380634</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -521,22 +521,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>312.0370797749354</v>
+        <v>1116578.931147295</v>
       </c>
       <c r="G3">
-        <v>-111.2590670102797</v>
+        <v>4841128.006333176</v>
       </c>
       <c r="H3">
-        <v>693.0736115550365</v>
+        <v>3985237.526447852</v>
       </c>
       <c r="I3">
-        <v>-2138.366463728782</v>
+        <v>1114889.222602169</v>
       </c>
       <c r="J3">
-        <v>2437.216556590558</v>
+        <v>4843182.724742006</v>
       </c>
       <c r="K3">
-        <v>259.6456511682446</v>
+        <v>3984673.434003291</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -556,22 +556,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>312.0370797749354</v>
+        <v>1116578.931147295</v>
       </c>
       <c r="G4">
-        <v>-111.2590670102797</v>
+        <v>4841128.006333176</v>
       </c>
       <c r="H4">
-        <v>693.0736115550365</v>
+        <v>3985237.526447852</v>
       </c>
       <c r="I4">
-        <v>-2094.238659504846</v>
+        <v>1114919.565768455</v>
       </c>
       <c r="J4">
-        <v>2376.451161934945</v>
+        <v>4843134.073072384</v>
       </c>
       <c r="K4">
-        <v>506.3441799963025</v>
+        <v>3984962.081285069</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -591,22 +591,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>312.0370797749354</v>
+        <v>1116578.931147295</v>
       </c>
       <c r="G5">
-        <v>-111.2590670102797</v>
+        <v>4841128.006333176</v>
       </c>
       <c r="H5">
-        <v>693.0736115550365</v>
+        <v>3985237.526447852</v>
       </c>
       <c r="I5">
-        <v>-2049.02424869873</v>
+        <v>1114950.656107296</v>
       </c>
       <c r="J5">
-        <v>2315.685767279332</v>
+        <v>4843085.421402765</v>
       </c>
       <c r="K5">
-        <v>740.0955864841757</v>
+        <v>3985235.579908733</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -626,22 +626,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>312.0370797749354</v>
+        <v>1116578.931147295</v>
       </c>
       <c r="G6">
-        <v>-111.2590670102797</v>
+        <v>4841128.006333176</v>
       </c>
       <c r="H6">
-        <v>693.0736115550365</v>
+        <v>3985237.526447852</v>
       </c>
       <c r="I6">
-        <v>-2002.69647462301</v>
+        <v>1114982.512017128</v>
       </c>
       <c r="J6">
-        <v>2254.92037262372</v>
+        <v>4843036.769733145</v>
       </c>
       <c r="K6">
-        <v>960.8998706318625</v>
+        <v>3985493.929874283</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -661,22 +661,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>312.0370797749354</v>
+        <v>1116578.931147295</v>
       </c>
       <c r="G7">
-        <v>-111.2590670102797</v>
+        <v>4841128.006333176</v>
       </c>
       <c r="H7">
-        <v>693.0736115550365</v>
+        <v>3985237.526447852</v>
       </c>
       <c r="I7">
-        <v>-1955.227921731444</v>
+        <v>1115015.152349432</v>
       </c>
       <c r="J7">
-        <v>2194.154977968107</v>
+        <v>4842988.118063524</v>
       </c>
       <c r="K7">
-        <v>1168.757032439365</v>
+        <v>3985737.131181721</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,22 +696,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>312.0370797749354</v>
+        <v>1116578.931147295</v>
       </c>
       <c r="G8">
-        <v>-111.2590670102797</v>
+        <v>4841128.006333176</v>
       </c>
       <c r="H8">
-        <v>693.0736115550365</v>
+        <v>3985237.526447852</v>
       </c>
       <c r="I8">
-        <v>-1906.590499395192</v>
+        <v>1115048.596419892</v>
       </c>
       <c r="J8">
-        <v>2133.389583312494</v>
+        <v>4842939.466393904</v>
       </c>
       <c r="K8">
-        <v>1363.667071906681</v>
+        <v>3985965.183831044</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,22 +731,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>312.0370797749354</v>
+        <v>1116578.931147295</v>
       </c>
       <c r="G9">
-        <v>-111.2590670102797</v>
+        <v>4841128.006333176</v>
       </c>
       <c r="H9">
-        <v>693.0736115550365</v>
+        <v>3985237.526447852</v>
       </c>
       <c r="I9">
-        <v>-1856.755425279518</v>
+        <v>1115082.864019818</v>
       </c>
       <c r="J9">
-        <v>2072.624188656882</v>
+        <v>4842890.814724283</v>
       </c>
       <c r="K9">
-        <v>1545.629989033812</v>
+        <v>3986178.087822254</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,22 +766,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>312.0370797749354</v>
+        <v>1116578.931147295</v>
       </c>
       <c r="G10">
-        <v>-92.88706331018146</v>
+        <v>4841144.519164131</v>
       </c>
       <c r="H10">
-        <v>693.0736115550365</v>
+        <v>3985237.526447852</v>
       </c>
       <c r="I10">
-        <v>-1805.693208311174</v>
+        <v>1115117.975427866</v>
       </c>
       <c r="J10">
-        <v>2011.858794001269</v>
+        <v>4842842.163054664</v>
       </c>
       <c r="K10">
-        <v>1714.645783820757</v>
+        <v>3986375.84315535</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,22 +801,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>242.1771750460453</v>
+        <v>1116530.250564895</v>
       </c>
       <c r="G11">
-        <v>-74.51505961008328</v>
+        <v>4841161.031995085</v>
       </c>
       <c r="H11">
-        <v>853.8620257047882</v>
+        <v>3985436.781314515</v>
       </c>
       <c r="I11">
-        <v>-1753.373631226361</v>
+        <v>1115153.951422036</v>
       </c>
       <c r="J11">
-        <v>1951.093399345657</v>
+        <v>4842793.511385043</v>
       </c>
       <c r="K11">
-        <v>1870.714456267516</v>
+        <v>3986558.449830333</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -836,22 +836,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>201.1379855689535</v>
+        <v>1116501.653164817</v>
       </c>
       <c r="G12">
-        <v>-56.14305590998511</v>
+        <v>4841177.54482604</v>
       </c>
       <c r="H12">
-        <v>949.6358282040605</v>
+        <v>3985555.46770338</v>
       </c>
       <c r="I12">
-        <v>-1699.765732688964</v>
+        <v>1115190.813291966</v>
       </c>
       <c r="J12">
-        <v>1890.328004690044</v>
+        <v>4842744.859715423</v>
       </c>
       <c r="K12">
-        <v>2013.83600637409</v>
+        <v>3986725.907847202</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -871,22 +871,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>175.2310383837417</v>
+        <v>1116483.600387877</v>
       </c>
       <c r="G13">
-        <v>-37.77105220988692</v>
+        <v>4841194.057656994</v>
       </c>
       <c r="H13">
-        <v>1018.078891746442</v>
+        <v>3985640.284843796</v>
       </c>
       <c r="I13">
-        <v>-1644.837788968445</v>
+        <v>1115228.582851529</v>
       </c>
       <c r="J13">
-        <v>1829.562610034432</v>
+        <v>4842696.208045802</v>
       </c>
       <c r="K13">
-        <v>2144.010434140479</v>
+        <v>3986878.217205958</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -906,22 +906,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>157.1636385792474</v>
+        <v>1116471.010454519</v>
       </c>
       <c r="G14">
-        <v>-19.39904850978873</v>
+        <v>4841210.570487948</v>
       </c>
       <c r="H14">
-        <v>1071.375468658495</v>
+        <v>3985706.331905596</v>
       </c>
       <c r="I14">
-        <v>-1588.55729516659</v>
+        <v>1115267.28245175</v>
       </c>
       <c r="J14">
-        <v>1768.797215378819</v>
+        <v>4842647.556376182</v>
       </c>
       <c r="K14">
-        <v>2261.237739566682</v>
+        <v>3987015.3779066</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -941,22 +941,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>143.6848172682035</v>
+        <v>1116461.617987209</v>
       </c>
       <c r="G15">
-        <v>-1.02704480969056</v>
+        <v>4841227.083318903</v>
       </c>
       <c r="H15">
-        <v>1115.029499208799</v>
+        <v>3985760.429572289</v>
       </c>
       <c r="I15">
-        <v>-1530.89094598197</v>
+        <v>1115306.934994023</v>
       </c>
       <c r="J15">
-        <v>1708.031820723206</v>
+        <v>4842598.904706563</v>
       </c>
       <c r="K15">
-        <v>2365.517922652699</v>
+        <v>3987137.389949128</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -976,22 +976,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>133.1462612645603</v>
+        <v>1116454.274389391</v>
       </c>
       <c r="G16">
-        <v>17.34495889040763</v>
+        <v>4841243.596149857</v>
       </c>
       <c r="H16">
-        <v>1152.001276495123</v>
+        <v>3985806.246347039</v>
       </c>
       <c r="I16">
-        <v>-1471.804616000747</v>
+        <v>1115347.56394367</v>
       </c>
       <c r="J16">
-        <v>1647.266426067594</v>
+        <v>4842550.253036941</v>
       </c>
       <c r="K16">
-        <v>2456.850983398531</v>
+        <v>3987244.253333543</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1011,22 +1011,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>124.6198021201893</v>
+        <v>1116448.332884052</v>
       </c>
       <c r="G17">
-        <v>35.71696259050582</v>
+        <v>4841260.108980812</v>
       </c>
       <c r="H17">
-        <v>1184.067559726866</v>
+        <v>3985845.984054656</v>
       </c>
       <c r="I17">
-        <v>-1411.263339502162</v>
+        <v>1115389.193343824</v>
       </c>
       <c r="J17">
-        <v>1586.501031411981</v>
+        <v>4842501.601367322</v>
       </c>
       <c r="K17">
-        <v>2535.236921804177</v>
+        <v>3987335.968059844</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1046,22 +1046,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>117.5398028827677</v>
+        <v>1116443.399317543</v>
       </c>
       <c r="G18">
-        <v>54.08896629060398</v>
+        <v>4841276.621811767</v>
       </c>
       <c r="H18">
-        <v>1212.378914743173</v>
+        <v>3985881.068518288</v>
       </c>
       <c r="I18">
-        <v>-1349.231289766754</v>
+        <v>1115431.847829659</v>
       </c>
       <c r="J18">
-        <v>1525.735636756369</v>
+        <v>4842452.949697701</v>
       </c>
       <c r="K18">
-        <v>2600.675737869638</v>
+        <v>3987412.534128032</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1081,22 +1081,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>111.5400362328068</v>
+        <v>1116439.218491132</v>
       </c>
       <c r="G19">
-        <v>72.4609699907022</v>
+        <v>4841293.13464272</v>
       </c>
       <c r="H19">
-        <v>1237.723274544994</v>
+        <v>3985912.476173247</v>
       </c>
       <c r="I19">
-        <v>-1285.67175787505</v>
+        <v>1115475.552642966</v>
       </c>
       <c r="J19">
-        <v>1464.970242100756</v>
+        <v>4842404.298028082</v>
       </c>
       <c r="K19">
-        <v>2653.167431594913</v>
+        <v>3987473.951538106</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1116,22 +1116,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>106.3718226032975</v>
+        <v>1116435.617117062</v>
       </c>
       <c r="G20">
-        <v>90.83297369080036</v>
+        <v>4841309.647473675</v>
       </c>
       <c r="H20">
-        <v>1260.663945420695</v>
+        <v>3985940.905089227</v>
       </c>
       <c r="I20">
-        <v>-1220.54713098421</v>
+        <v>1115520.333647093</v>
       </c>
       <c r="J20">
-        <v>1404.204847445144</v>
+        <v>4842355.64635846</v>
       </c>
       <c r="K20">
-        <v>2692.712002980003</v>
+        <v>3987520.220290067</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1151,22 +1151,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>101.8597050541739</v>
+        <v>1116432.472931409</v>
       </c>
       <c r="G21">
-        <v>109.2049773908985</v>
+        <v>4841326.16030463</v>
       </c>
       <c r="H21">
-        <v>1281.617628850546</v>
+        <v>3985966.871657901</v>
       </c>
       <c r="I21">
-        <v>-1153.818870069741</v>
+        <v>1115566.217342248</v>
       </c>
       <c r="J21">
-        <v>1343.439452789531</v>
+        <v>4842306.994688841</v>
       </c>
       <c r="K21">
-        <v>2719.309452024906</v>
+        <v>3987551.340383913</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1186,22 +1186,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>97.87593171932163</v>
+        <v>1116429.696912649</v>
       </c>
       <c r="G22">
-        <v>127.5769810909967</v>
+        <v>4841342.673135584</v>
       </c>
       <c r="H22">
-        <v>1300.901258433114</v>
+        <v>3985990.768634941</v>
       </c>
       <c r="I22">
-        <v>-1085.447487119128</v>
+        <v>1115613.230881185</v>
       </c>
       <c r="J22">
-        <v>1282.674058133919</v>
+        <v>4842258.343019221</v>
       </c>
       <c r="K22">
-        <v>2732.959778729625</v>
+        <v>3987567.311819647</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1221,22 +1221,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>94.3250076125159</v>
+        <v>1116427.222516868</v>
       </c>
       <c r="G23">
-        <v>145.9489847910949</v>
+        <v>4841359.185966539</v>
       </c>
       <c r="H23">
-        <v>1318.761508239553</v>
+        <v>3986012.901707853</v>
       </c>
       <c r="I23">
-        <v>-1015.392521763874</v>
+        <v>1115661.402085266</v>
       </c>
       <c r="J23">
-        <v>1221.908663478306</v>
+        <v>4842209.6913496</v>
       </c>
       <c r="K23">
-        <v>2733.662983094158</v>
+        <v>3987568.134597267</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1256,22 +1256,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>91.13394150866013</v>
+        <v>1116424.998881479</v>
       </c>
       <c r="G24">
-        <v>164.3209884911931</v>
+        <v>4841375.698797493</v>
       </c>
       <c r="H24">
-        <v>1335.39413872967</v>
+        <v>3986033.513470137</v>
       </c>
       <c r="I24">
-        <v>-943.6125173361346</v>
+        <v>1115710.759460931</v>
       </c>
       <c r="J24">
-        <v>1161.143268822693</v>
+        <v>4842161.03967998</v>
       </c>
       <c r="K24">
-        <v>2721.419065118505</v>
+        <v>3987553.808716773</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1291,22 +1291,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>88.24586574344558</v>
+        <v>1116422.986379303</v>
       </c>
       <c r="G25">
-        <v>182.6929921912913</v>
+        <v>4841392.211628447</v>
       </c>
       <c r="H25">
-        <v>1350.957110767422</v>
+        <v>3986052.799672659</v>
       </c>
       <c r="I25">
-        <v>-870.0649963357542</v>
+        <v>1115761.332216564</v>
       </c>
       <c r="J25">
-        <v>1100.377874167081</v>
+        <v>4842112.388010359</v>
       </c>
       <c r="K25">
-        <v>2696.228024802667</v>
+        <v>3987524.334178165</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1326,22 +1326,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>85.61573349340058</v>
+        <v>1116421.153620295</v>
       </c>
       <c r="G26">
-        <v>201.0649958913895</v>
+        <v>4841408.724459402</v>
       </c>
       <c r="H26">
-        <v>1365.579731590248</v>
+        <v>3986070.920557659</v>
       </c>
       <c r="I26">
-        <v>-794.7064352932185</v>
+        <v>1115813.150279779</v>
       </c>
       <c r="J26">
-        <v>1039.612479511468</v>
+        <v>4842063.73634074</v>
       </c>
       <c r="K26">
-        <v>2658.089862146643</v>
+        <v>3987479.710981444</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1361,22 +1361,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>83.20733955615331</v>
+        <v>1116419.475375528</v>
       </c>
       <c r="G27">
-        <v>219.4369995914876</v>
+        <v>4841425.237290356</v>
       </c>
       <c r="H27">
-        <v>1379.369191666143</v>
+        <v>3986088.008959478</v>
       </c>
       <c r="I27">
-        <v>-717.4922390136155</v>
+        <v>1115866.244315128</v>
       </c>
       <c r="J27">
-        <v>978.8470848558554</v>
+        <v>4842015.084671118</v>
       </c>
       <c r="K27">
-        <v>2607.004577150433</v>
+        <v>3987419.93912661</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1396,22 +1396,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>80.99120940717121</v>
+        <v>1116417.931106226</v>
       </c>
       <c r="G28">
-        <v>237.8090032915858</v>
+        <v>4841441.750121311</v>
       </c>
       <c r="H28">
-        <v>1392.415337608274</v>
+        <v>3986104.176219314</v>
       </c>
       <c r="I28">
-        <v>-638.3767141863855</v>
+        <v>1115920.645742252</v>
       </c>
       <c r="J28">
-        <v>918.081690200243</v>
+        <v>4841966.433001499</v>
       </c>
       <c r="K28">
-        <v>2542.972169814038</v>
+        <v>3987345.018613662</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1431,22 +1431,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>78.94307274920507</v>
+        <v>1116416.50390008</v>
       </c>
       <c r="G29">
-        <v>256.1810069916841</v>
+        <v>4841458.262952266</v>
       </c>
       <c r="H29">
-        <v>1404.794223207113</v>
+        <v>3986119.516585798</v>
       </c>
       <c r="I29">
-        <v>-557.3130423452324</v>
+        <v>1115976.38675447</v>
       </c>
       <c r="J29">
-        <v>857.3162955446303</v>
+        <v>4841917.781331878</v>
       </c>
       <c r="K29">
-        <v>2465.992640137458</v>
+        <v>3987254.9494426</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1466,22 +1466,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>77.04273959031539</v>
+        <v>1116415.17968807</v>
       </c>
       <c r="G30">
-        <v>274.5530106917822</v>
+        <v>4841474.775783219</v>
       </c>
       <c r="H30">
-        <v>1416.570795734539</v>
+        <v>3986134.110543958</v>
       </c>
       <c r="I30">
-        <v>-474.2532521622016</v>
+        <v>1116033.500337834</v>
       </c>
       <c r="J30">
-        <v>796.5509008890176</v>
+        <v>4841869.129662259</v>
       </c>
       <c r="K30">
-        <v>2376.065988120692</v>
+        <v>3987149.731613425</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1501,22 +1501,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>75.27325922093333</v>
+        <v>1116413.946658405</v>
       </c>
       <c r="G31">
-        <v>292.9250143918804</v>
+        <v>4841491.288614174</v>
       </c>
       <c r="H31">
-        <v>1427.800958516449</v>
+        <v>3986148.027371234</v>
       </c>
       <c r="I31">
-        <v>-389.1481910595198</v>
+        <v>1116092.020290645</v>
       </c>
       <c r="J31">
-        <v>735.7855062334052</v>
+        <v>4841820.477992638</v>
       </c>
       <c r="K31">
-        <v>2273.19221376374</v>
+        <v>3987029.365126136</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1536,22 +1536,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>73.62028166589471</v>
+        <v>1116412.794811571</v>
       </c>
       <c r="G32">
-        <v>311.2970180919786</v>
+        <v>4841507.801445129</v>
       </c>
       <c r="H32">
-        <v>1438.533175877403</v>
+        <v>3986161.327126385</v>
       </c>
       <c r="I32">
-        <v>-301.9474961224051</v>
+        <v>1116151.981243456</v>
       </c>
       <c r="J32">
-        <v>675.0201115777925</v>
+        <v>4841771.826323017</v>
       </c>
       <c r="K32">
-        <v>2157.371317066603</v>
+        <v>3986893.849980734</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1571,22 +1571,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>72.07156644877682</v>
+        <v>1116411.715618018</v>
       </c>
       <c r="G33">
-        <v>329.6690217920767</v>
+        <v>4841524.314276083</v>
       </c>
       <c r="H33">
-        <v>1448.809737139829</v>
+        <v>3986174.06221588</v>
       </c>
       <c r="I33">
-        <v>-212.5995642956318</v>
+        <v>1116213.418679567</v>
       </c>
       <c r="J33">
-        <v>614.2547169221801</v>
+        <v>4841723.174653398</v>
       </c>
       <c r="K33">
-        <v>2028.60329802928</v>
+        <v>3986743.186177218</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1606,22 +1606,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>70.61660014059082</v>
+        <v>1116410.701751659</v>
       </c>
       <c r="G34">
-        <v>348.0410254921749</v>
+        <v>4841540.827107038</v>
       </c>
       <c r="H34">
-        <v>1458.667763061311</v>
+        <v>3986186.278641118</v>
       </c>
       <c r="I34">
-        <v>-121.051521846214</v>
+        <v>1116276.36895602</v>
       </c>
       <c r="J34">
-        <v>553.4893222665675</v>
+        <v>4841674.522983777</v>
       </c>
       <c r="K34">
-        <v>1886.888156651772</v>
+        <v>3986577.373715588</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1641,22 +1641,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>69.24629533679952</v>
+        <v>1116409.746880104</v>
       </c>
       <c r="G35">
-        <v>366.4130291922731</v>
+        <v>4841557.339937992</v>
       </c>
       <c r="H35">
-        <v>1468.140015230828</v>
+        <v>3986198.017001453</v>
       </c>
       <c r="I35">
-        <v>-27.24919307413454</v>
+        <v>1116340.869325119</v>
       </c>
       <c r="J35">
-        <v>492.7239276109547</v>
+        <v>4841625.871314157</v>
       </c>
       <c r="K35">
-        <v>1732.225892934078</v>
+        <v>3986396.412595845</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1676,22 +1676,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>67.95275134528332</v>
+        <v>1116408.8454979</v>
       </c>
       <c r="G36">
-        <v>384.7850328923714</v>
+        <v>4841573.852768946</v>
       </c>
       <c r="H36">
-        <v>1477.255552977066</v>
+        <v>3986209.313308266</v>
       </c>
       <c r="I36">
-        <v>68.8629317473976</v>
+        <v>1116406.957956467</v>
       </c>
       <c r="J36">
-        <v>431.9585329553423</v>
+        <v>4841577.219644536</v>
       </c>
       <c r="K36">
-        <v>1564.616506876198</v>
+        <v>3986200.302817989</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1711,22 +1711,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>66.72906217691637</v>
+        <v>1116407.992792738</v>
       </c>
       <c r="G37">
-        <v>403.1570365924695</v>
+        <v>4841590.365599901</v>
       </c>
       <c r="H37">
-        <v>1486.040271014619</v>
+        <v>3986220.199651231</v>
       </c>
       <c r="I37">
-        <v>167.3417292211263</v>
+        <v>1116474.673959561</v>
       </c>
       <c r="J37">
-        <v>371.1931382997296</v>
+        <v>4841528.567974917</v>
       </c>
       <c r="K37">
-        <v>1384.059998478133</v>
+        <v>3985989.044382018</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1746,22 +1746,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>65.56916117606879</v>
+        <v>1116407.18453718</v>
       </c>
       <c r="G38">
-        <v>421.5290402925677</v>
+        <v>4841606.878430855</v>
       </c>
       <c r="H38">
-        <v>1494.517342902779</v>
+        <v>3986230.704747868</v>
       </c>
       <c r="I38">
-        <v>268.2454764838141</v>
+        <v>1116544.057406934</v>
       </c>
       <c r="J38">
-        <v>310.4277436441172</v>
+        <v>4841479.916305297</v>
       </c>
       <c r="K38">
-        <v>1190.556367739883</v>
+        <v>3985762.637287934</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1781,22 +1781,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>64.46769430778906</v>
+        <v>1116406.417000367</v>
       </c>
       <c r="G39">
-        <v>439.9010439926659</v>
+        <v>4841623.39126181</v>
       </c>
       <c r="H39">
-        <v>1502.707589448715</v>
+        <v>3986240.854400081</v>
       </c>
       <c r="I39">
-        <v>371.6338856930992</v>
+        <v>1116615.149357868</v>
       </c>
       <c r="J39">
-        <v>249.6623489885045</v>
+        <v>4841431.264635676</v>
       </c>
       <c r="K39">
-        <v>984.1056146614466</v>
+        <v>3985521.081535737</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1816,22 +1816,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>63.41991605973378</v>
+        <v>1116405.686875476</v>
       </c>
       <c r="G40">
-        <v>458.273047692764</v>
+        <v>4841639.904092765</v>
       </c>
       <c r="H40">
-        <v>1510.629786801097</v>
+        <v>3986250.671875957</v>
       </c>
       <c r="I40">
-        <v>477.5681393635714</v>
+        <v>1116687.991882689</v>
       </c>
       <c r="J40">
-        <v>188.8969543328919</v>
+        <v>4841382.612966056</v>
       </c>
       <c r="K40">
-        <v>764.7077392428248</v>
+        <v>3985264.377125426</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1851,22 +1851,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>62.42160334016155</v>
+        <v>1116404.991219723</v>
       </c>
       <c r="G41">
-        <v>476.6450513928622</v>
+        <v>4841656.416923719</v>
       </c>
       <c r="H41">
-        <v>1518.300925707092</v>
+        <v>3986260.178231051</v>
       </c>
       <c r="I41">
-        <v>586.110926572951</v>
+        <v>1116762.628087671</v>
       </c>
       <c r="J41">
-        <v>128.1315596772795</v>
+        <v>4841333.961296435</v>
       </c>
       <c r="K41">
-        <v>532.3627414840179</v>
+        <v>3984992.524057001</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1886,22 +1886,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>61.46898380827485</v>
+        <v>1116404.327404423</v>
       </c>
       <c r="G42">
-        <v>495.0170550929604</v>
+        <v>4841672.929754674</v>
       </c>
       <c r="H42">
-        <v>1525.736430937452</v>
+        <v>3986269.392580301</v>
       </c>
       <c r="I42">
-        <v>697.3264800598308</v>
+        <v>1116839.102140536</v>
       </c>
       <c r="J42">
-        <v>67.36616502166676</v>
+        <v>4841285.309626816</v>
       </c>
       <c r="K42">
-        <v>287.0706213850247</v>
+        <v>3984705.522330463</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1921,22 +1921,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>60.55867586319291</v>
+        <v>1116403.69307317</v>
       </c>
       <c r="G43">
-        <v>513.3890587930587</v>
+        <v>4841689.442585628</v>
       </c>
       <c r="H43">
-        <v>1532.950348004956</v>
+        <v>3986278.332329418</v>
       </c>
       <c r="I43">
-        <v>811.280614234891</v>
+        <v>1116917.459296598</v>
       </c>
       <c r="J43">
-        <v>6.600770366054066</v>
+        <v>4841236.657957194</v>
       </c>
       <c r="K43">
-        <v>28.83137894584614</v>
+        <v>3984403.371945811</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1956,22 +1956,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>59.68763811511774</v>
+        <v>1116403.086106627</v>
       </c>
       <c r="G44">
-        <v>531.7610624931568</v>
+        <v>4841705.955416583</v>
       </c>
       <c r="H44">
-        <v>1539.955502857392</v>
+        <v>3986287.013372784</v>
       </c>
       <c r="I44">
-        <v>928.0407641281299</v>
+        <v>1116997.74592554</v>
       </c>
       <c r="J44">
-        <v>-54.16462428955834</v>
+        <v>4841188.006287575</v>
       </c>
       <c r="K44">
-        <v>-242.3549858335172</v>
+        <v>3984086.072903046</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1991,22 +1991,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>58.85312661786737</v>
+        <v>1116402.504592726</v>
       </c>
       <c r="G45">
-        <v>550.1330661932549</v>
+        <v>4841722.468247538</v>
       </c>
       <c r="H45">
-        <v>1546.763639107306</v>
+        <v>3986295.450263513</v>
       </c>
       <c r="I45">
-        <v>1047.676025295122</v>
+        <v>1117080.009538858</v>
       </c>
       <c r="J45">
-        <v>-114.930018945171</v>
+        <v>4841139.354617954</v>
       </c>
       <c r="K45">
-        <v>-526.488472953067</v>
+        <v>3983753.625202167</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2026,22 +2026,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>58.05265849242402</v>
+        <v>1116401.946801319</v>
       </c>
       <c r="G46">
-        <v>568.5050698933532</v>
+        <v>4841738.981078492</v>
       </c>
       <c r="H46">
-        <v>1553.385536486732</v>
+        <v>3986303.656360242</v>
       </c>
       <c r="I46">
-        <v>1170.25719470593</v>
+        <v>1117164.298817973</v>
       </c>
       <c r="J46">
-        <v>-175.6954136007837</v>
+        <v>4841090.702948334</v>
       </c>
       <c r="K46">
-        <v>-823.5690824128029</v>
+        <v>3983406.028843174</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2061,22 +2061,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>57.28398084288412</v>
+        <v>1116401.411162518</v>
       </c>
       <c r="G47">
-        <v>586.8770735934513</v>
+        <v>4841755.493909446</v>
       </c>
       <c r="H47">
-        <v>1559.831113527426</v>
+        <v>3986311.643954377</v>
       </c>
       <c r="I47">
-        <v>1295.856812640872</v>
+        <v>1117250.663643041</v>
       </c>
       <c r="J47">
-        <v>-236.4608082563964</v>
+        <v>4841042.051278714</v>
       </c>
       <c r="K47">
-        <v>-1133.596814212724</v>
+        <v>3983043.283826069</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2096,22 +2096,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>56.54504407844288</v>
+        <v>1116400.896248102</v>
       </c>
       <c r="G48">
-        <v>605.2490772935495</v>
+        <v>4841772.006740401</v>
       </c>
       <c r="H48">
-        <v>1566.109516922144</v>
+        <v>3986319.424380833</v>
       </c>
       <c r="I48">
-        <v>1424.54920561793</v>
+        <v>1117339.155122473</v>
       </c>
       <c r="J48">
-        <v>-297.2262029120085</v>
+        <v>4840993.399609094</v>
       </c>
       <c r="K48">
-        <v>-1456.571668352828</v>
+        <v>3982665.390150849</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2131,22 +2131,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>55.83397892200186</v>
+        <v>1116400.4007555</v>
       </c>
       <c r="G49">
-        <v>623.6210809936478</v>
+        <v>4841788.519571355</v>
       </c>
       <c r="H49">
-        <v>1572.229199587821</v>
+        <v>3986327.008114773</v>
       </c>
       <c r="I49">
-        <v>1556.41053037722</v>
+        <v>1117429.825623175</v>
       </c>
       <c r="J49">
-        <v>-357.9915975676212</v>
+        <v>4840944.747939474</v>
       </c>
       <c r="K49">
-        <v>-1792.49364483312</v>
+        <v>3982272.347817515</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2166,22 +2166,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>55.14907651817727</v>
+        <v>1116399.923493929</v>
       </c>
       <c r="G50">
-        <v>641.9930846937459</v>
+        <v>4841805.03240231</v>
       </c>
       <c r="H50">
-        <v>1578.197989102593</v>
+        <v>3986334.404856418</v>
       </c>
       <c r="I50">
-        <v>1691.518818948511</v>
+        <v>1117522.728801541</v>
       </c>
       <c r="J50">
-        <v>-418.7569922232339</v>
+        <v>4840896.096269852</v>
       </c>
       <c r="K50">
-        <v>-2141.362743653598</v>
+        <v>3981864.156826069</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2201,22 +2201,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>54.48877115881383</v>
+        <v>1116399.463372353</v>
       </c>
       <c r="G51">
-        <v>660.365088393844</v>
+        <v>4841821.545233265</v>
       </c>
       <c r="H51">
-        <v>1584.023147906858</v>
+        <v>3986341.623605648</v>
       </c>
       <c r="I51">
-        <v>1829.954024828525</v>
+        <v>1117617.919635205</v>
       </c>
       <c r="J51">
-        <v>-479.5223868788466</v>
+        <v>4840847.444600233</v>
       </c>
       <c r="K51">
-        <v>-2503.178964814262</v>
+        <v>3981440.817176508</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2236,22 +2236,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>53.85162522853028</v>
+        <v>1116399.019388997</v>
       </c>
       <c r="G52">
-        <v>678.7370920939422</v>
+        <v>4841838.058064219</v>
       </c>
       <c r="H52">
-        <v>1589.711426429871</v>
+        <v>3986348.672727841</v>
       </c>
       <c r="I52">
-        <v>1971.798070295281</v>
+        <v>1117715.454455575</v>
       </c>
       <c r="J52">
-        <v>-540.2877815344593</v>
+        <v>4840798.792930612</v>
       </c>
       <c r="K52">
-        <v>-2877.94230831511</v>
+        <v>3981002.328868834</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2271,22 +2271,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>53.236316040861</v>
+        <v>1116398.590622171</v>
       </c>
       <c r="G53">
-        <v>697.1090957940404</v>
+        <v>4841854.570895173</v>
       </c>
       <c r="H53">
-        <v>1595.269110116601</v>
+        <v>3986355.560012151</v>
       </c>
       <c r="I53">
-        <v>2117.134894887524</v>
+        <v>1117815.390981165</v>
       </c>
       <c r="J53">
-        <v>-601.0531761900714</v>
+        <v>4840750.141260993</v>
       </c>
       <c r="K53">
-        <v>-3265.652774156142</v>
+        <v>3980548.691903047</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2306,22 +2306,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>52.64162429070175</v>
+        <v>1116398.176222225</v>
       </c>
       <c r="G54">
-        <v>715.4810994941386</v>
+        <v>4841871.083726128</v>
       </c>
       <c r="H54">
-        <v>1600.70206117646</v>
+        <v>3986362.29272324</v>
       </c>
       <c r="I54">
-        <v>2266.050505077926</v>
+        <v>1117917.788351758</v>
       </c>
       <c r="J54">
-        <v>-661.8185708456841</v>
+        <v>4840701.489591372</v>
       </c>
       <c r="K54">
-        <v>-3666.310362337362</v>
+        <v>3980079.906279146</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2341,22 +2341,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>228.9529360149119</v>
+        <v>1116577.763741082</v>
       </c>
       <c r="G55">
-        <v>-118.0884599825508</v>
+        <v>4841118.500298946</v>
       </c>
       <c r="H55">
-        <v>809.4183366698496</v>
+        <v>3985221.012020213</v>
       </c>
       <c r="I55">
-        <v>-1675.676300220824</v>
+        <v>1114860.202715172</v>
       </c>
       <c r="J55">
-        <v>2005.313908321202</v>
+        <v>4843223.673646489</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984370.098039681</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2376,22 +2376,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>228.9529360149119</v>
+        <v>1116577.763741082</v>
       </c>
       <c r="G56">
-        <v>-118.0884599825508</v>
+        <v>4841118.500298946</v>
       </c>
       <c r="H56">
-        <v>809.4183366698496</v>
+        <v>3985221.012020213</v>
       </c>
       <c r="I56">
-        <v>-1642.59398816865</v>
+        <v>1114889.816680963</v>
       </c>
       <c r="J56">
-        <v>1956.533055046126</v>
+        <v>4843175.022054246</v>
       </c>
       <c r="K56">
-        <v>338.8120628292959</v>
+        <v>3984673.894014644</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2411,22 +2411,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>228.9529360149119</v>
+        <v>1116577.763741082</v>
       </c>
       <c r="G57">
-        <v>-118.0884599825508</v>
+        <v>4841118.500298946</v>
       </c>
       <c r="H57">
-        <v>809.4183366698496</v>
+        <v>3985221.012020213</v>
       </c>
       <c r="I57">
-        <v>-1608.69705461736</v>
+        <v>1114920.159863418</v>
       </c>
       <c r="J57">
-        <v>1907.75220177105</v>
+        <v>4843126.370462001</v>
       </c>
       <c r="K57">
-        <v>660.7294031471816</v>
+        <v>3984962.541329744</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2446,22 +2446,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>228.9529360149119</v>
+        <v>1116577.763741082</v>
       </c>
       <c r="G58">
-        <v>-118.0884599825508</v>
+        <v>4841118.500298946</v>
       </c>
       <c r="H58">
-        <v>809.4183366698496</v>
+        <v>3985221.012020213</v>
       </c>
       <c r="I58">
-        <v>-1573.965440261976</v>
+        <v>1114951.250218825</v>
       </c>
       <c r="J58">
-        <v>1858.971348495974</v>
+        <v>4843077.718869758</v>
       </c>
       <c r="K58">
-        <v>965.7520209536596</v>
+        <v>3985236.039984982</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2481,22 +2481,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>228.9529360149119</v>
+        <v>1116577.763741082</v>
       </c>
       <c r="G59">
-        <v>-118.0884599825508</v>
+        <v>4841118.500298946</v>
       </c>
       <c r="H59">
-        <v>809.4183366698496</v>
+        <v>3985221.012020213</v>
       </c>
       <c r="I59">
-        <v>-1538.378591855591</v>
+        <v>1114983.106145632</v>
       </c>
       <c r="J59">
-        <v>1810.190495220899</v>
+        <v>4843029.067277514</v>
       </c>
       <c r="K59">
-        <v>1253.879916248728</v>
+        <v>3985494.389980359</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2516,22 +2516,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>228.9529360149119</v>
+        <v>1116577.763741082</v>
       </c>
       <c r="G60">
-        <v>-118.0884599825508</v>
+        <v>4841118.500298946</v>
       </c>
       <c r="H60">
-        <v>809.4183366698496</v>
+        <v>3985221.012020213</v>
       </c>
       <c r="I60">
-        <v>-1501.915450046499</v>
+        <v>1115015.746495329</v>
       </c>
       <c r="J60">
-        <v>1761.409641945823</v>
+        <v>4842980.415685271</v>
       </c>
       <c r="K60">
-        <v>1525.113089032389</v>
+        <v>3985737.591315872</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2551,22 +2551,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>228.9529360149119</v>
+        <v>1116577.763741082</v>
       </c>
       <c r="G61">
-        <v>-118.0884599825508</v>
+        <v>4841118.500298946</v>
       </c>
       <c r="H61">
-        <v>809.4183366698496</v>
+        <v>3985221.012020213</v>
       </c>
       <c r="I61">
-        <v>-1464.554436915832</v>
+        <v>1115049.190583609</v>
       </c>
       <c r="J61">
-        <v>1712.628788670747</v>
+        <v>4842931.764093027</v>
       </c>
       <c r="K61">
-        <v>1779.45153930464</v>
+        <v>3985965.643991523</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2586,22 +2586,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>228.9529360149119</v>
+        <v>1116577.763741082</v>
       </c>
       <c r="G62">
-        <v>-118.0884599825508</v>
+        <v>4841118.500298946</v>
       </c>
       <c r="H62">
-        <v>809.4183366698496</v>
+        <v>3985221.012020213</v>
       </c>
       <c r="I62">
-        <v>-1426.273443208326</v>
+        <v>1115083.458201795</v>
       </c>
       <c r="J62">
-        <v>1663.847935395671</v>
+        <v>4842883.112500783</v>
       </c>
       <c r="K62">
-        <v>2016.895267065483</v>
+        <v>3986178.548007312</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2621,22 +2621,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>228.9529360149119</v>
+        <v>1116577.763741082</v>
       </c>
       <c r="G63">
-        <v>-98.58873126796546</v>
+        <v>4841135.013097476</v>
       </c>
       <c r="H63">
-        <v>809.4183366698496</v>
+        <v>3985221.012020213</v>
       </c>
       <c r="I63">
-        <v>-1387.04981524864</v>
+        <v>1115118.569628553</v>
       </c>
       <c r="J63">
-        <v>1615.067082120596</v>
+        <v>4842834.46090854</v>
       </c>
       <c r="K63">
-        <v>2237.444272314916</v>
+        <v>3986376.303363238</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2656,22 +2656,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>177.6941871862857</v>
+        <v>1116529.083209579</v>
       </c>
       <c r="G64">
-        <v>-79.08900255338017</v>
+        <v>4841151.525896006</v>
       </c>
       <c r="H64">
-        <v>997.1979441560889</v>
+        <v>3985420.266061184</v>
       </c>
       <c r="I64">
-        <v>-1346.860341535523</v>
+        <v>1115154.545641893</v>
       </c>
       <c r="J64">
-        <v>1566.28622884552</v>
+        <v>4842785.809316296</v>
       </c>
       <c r="K64">
-        <v>2441.098555052941</v>
+        <v>3986558.910059302</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2691,22 +2691,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>147.5822436658887</v>
+        <v>1116500.485839401</v>
       </c>
       <c r="G65">
-        <v>-59.5892738387949</v>
+        <v>4841168.038694536</v>
       </c>
       <c r="H65">
-        <v>1109.049081788605</v>
+        <v>3985538.951958225</v>
       </c>
       <c r="I65">
-        <v>-1305.681239005859</v>
+        <v>1115191.407531464</v>
       </c>
       <c r="J65">
-        <v>1517.505375570445</v>
+        <v>4842737.157724052</v>
       </c>
       <c r="K65">
-        <v>2627.858115279557</v>
+        <v>3986726.368095503</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2726,22 +2726,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>128.5733757918664</v>
+        <v>1116482.433081335</v>
       </c>
       <c r="G66">
-        <v>-40.08954512420961</v>
+        <v>4841184.551493066</v>
       </c>
       <c r="H66">
-        <v>1188.981530125175</v>
+        <v>3985623.768747167</v>
       </c>
       <c r="I66">
-        <v>-1263.48813896048</v>
+        <v>1115229.177111154</v>
       </c>
       <c r="J66">
-        <v>1468.724522295369</v>
+        <v>4842688.506131808</v>
       </c>
       <c r="K66">
-        <v>2797.722952994765</v>
+        <v>3986878.677471842</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2761,22 +2761,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>115.3166684980479</v>
+        <v>1116469.84316114</v>
       </c>
       <c r="G67">
-        <v>-20.58981640962432</v>
+        <v>4841201.064291595</v>
       </c>
       <c r="H67">
-        <v>1251.224884821022</v>
+        <v>3985689.815535275</v>
       </c>
       <c r="I67">
-        <v>-1220.256072643425</v>
+        <v>1115267.876731996</v>
       </c>
       <c r="J67">
-        <v>1419.943669020293</v>
+        <v>4842639.854539565</v>
       </c>
       <c r="K67">
-        <v>2950.693068198565</v>
+        <v>3987015.838188319</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2796,22 +2796,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>105.4267678637717</v>
+        <v>1116460.45070365</v>
       </c>
       <c r="G68">
-        <v>-1.090087695039042</v>
+        <v>4841217.577090126</v>
       </c>
       <c r="H68">
-        <v>1302.207020351594</v>
+        <v>3985743.912977791</v>
       </c>
       <c r="I68">
-        <v>-1175.959456466084</v>
+        <v>1115307.529295399</v>
       </c>
       <c r="J68">
-        <v>1371.162815745217</v>
+        <v>4842591.202947321</v>
       </c>
       <c r="K68">
-        <v>3086.768460890954</v>
+        <v>3987137.850244933</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2831,22 +2831,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>97.69424665144646</v>
+        <v>1116453.10711351</v>
       </c>
       <c r="G69">
-        <v>18.40964101954625</v>
+        <v>4841234.089888656</v>
       </c>
       <c r="H69">
-        <v>1345.385167630468</v>
+        <v>3985789.729562681</v>
       </c>
       <c r="I69">
-        <v>-1130.572076867516</v>
+        <v>1115348.158266695</v>
       </c>
       <c r="J69">
-        <v>1322.381962470142</v>
+        <v>4842542.551355077</v>
       </c>
       <c r="K69">
-        <v>3205.949131071935</v>
+        <v>3987244.713641685</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2866,22 +2866,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>91.43807396734435</v>
+        <v>1116447.165614383</v>
       </c>
       <c r="G70">
-        <v>37.90936973413154</v>
+        <v>4841250.602687186</v>
       </c>
       <c r="H70">
-        <v>1382.834346482317</v>
+        <v>3985829.467105629</v>
       </c>
       <c r="I70">
-        <v>-1084.067074801956</v>
+        <v>1115389.787689032</v>
       </c>
       <c r="J70">
-        <v>1273.601109195066</v>
+        <v>4842493.899762833</v>
       </c>
       <c r="K70">
-        <v>3308.235078741508</v>
+        <v>3987336.428378574</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2901,22 +2901,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>86.24322144033</v>
+        <v>1116442.232053032</v>
       </c>
       <c r="G71">
-        <v>57.40909844871681</v>
+        <v>4841267.115485716</v>
       </c>
       <c r="H71">
-        <v>1415.898265673747</v>
+        <v>3985864.551423875</v>
       </c>
       <c r="I71">
-        <v>-1036.41692984435</v>
+        <v>1115432.442197595</v>
       </c>
       <c r="J71">
-        <v>1224.82025591999</v>
+        <v>4842445.24817059</v>
       </c>
       <c r="K71">
-        <v>3393.626303899671</v>
+        <v>3987412.9944556</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2936,22 +2936,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>81.84097478777288</v>
+        <v>1116438.051230992</v>
       </c>
       <c r="G72">
-        <v>76.90882716330212</v>
+        <v>4841283.628284245</v>
       </c>
       <c r="H72">
-        <v>1445.497126765464</v>
+        <v>3985895.958948684</v>
       </c>
       <c r="I72">
-        <v>-987.5934439044913</v>
+        <v>1115476.147034191</v>
       </c>
       <c r="J72">
-        <v>1176.039402644915</v>
+        <v>4842396.596578347</v>
       </c>
       <c r="K72">
-        <v>3462.122806546427</v>
+        <v>3987474.411872765</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2971,22 +2971,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>78.04886878139085</v>
+        <v>1116434.449860687</v>
       </c>
       <c r="G73">
-        <v>96.40855587788739</v>
+        <v>4841300.141082775</v>
       </c>
       <c r="H73">
-        <v>1472.288797019131</v>
+        <v>3985924.387746857</v>
       </c>
       <c r="I73">
-        <v>-937.5677245401475</v>
+        <v>1115520.92806218</v>
       </c>
       <c r="J73">
-        <v>1127.258549369839</v>
+        <v>4842347.944986102</v>
       </c>
       <c r="K73">
-        <v>3513.724586681773</v>
+        <v>3987520.680630067</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3006,22 +3006,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>74.738164293125</v>
+        <v>1116431.305678322</v>
       </c>
       <c r="G74">
-        <v>115.9082845924727</v>
+        <v>4841316.653881306</v>
       </c>
       <c r="H74">
-        <v>1496.759928665369</v>
+        <v>3985950.354207929</v>
       </c>
       <c r="I74">
-        <v>-886.3101678592749</v>
+        <v>1115566.811781785</v>
       </c>
       <c r="J74">
-        <v>1078.477696094763</v>
+        <v>4842299.293393859</v>
       </c>
       <c r="K74">
-        <v>3548.43164430571</v>
+        <v>3987551.800727507</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3041,22 +3041,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>71.81512513992494</v>
+        <v>1116428.529662464</v>
       </c>
       <c r="G75">
-        <v>135.408013307058</v>
+        <v>4841333.166679835</v>
       </c>
       <c r="H75">
-        <v>1519.280658240773</v>
+        <v>3985974.251085942</v>
       </c>
       <c r="I75">
-        <v>-833.790441001223</v>
+        <v>1115613.825345773</v>
       </c>
       <c r="J75">
-        <v>1029.696842819688</v>
+        <v>4842250.641801615</v>
       </c>
       <c r="K75">
-        <v>3566.243979418238</v>
+        <v>3987567.772165084</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3076,22 +3076,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>69.20968318281622</v>
+        <v>1116426.05526927</v>
       </c>
       <c r="G76">
-        <v>154.9077420216433</v>
+        <v>4841349.679478365</v>
       </c>
       <c r="H76">
-        <v>1540.139068443984</v>
+        <v>3985996.384067136</v>
       </c>
       <c r="I76">
-        <v>-779.9774641865542</v>
+        <v>1115661.996575523</v>
       </c>
       <c r="J76">
-        <v>980.9159895446119</v>
+        <v>4842201.990209372</v>
       </c>
       <c r="K76">
-        <v>3567.161592019358</v>
+        <v>3987568.594942799</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3111,22 +3111,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>66.86828210951298</v>
+        <v>1116423.831636206</v>
       </c>
       <c r="G77">
-        <v>174.4074707362286</v>
+        <v>4841366.192276895</v>
       </c>
       <c r="H77">
-        <v>1559.563781607638</v>
+        <v>3986016.995744008</v>
       </c>
       <c r="I77">
-        <v>-724.8393923248555</v>
+        <v>1115711.353977488</v>
       </c>
       <c r="J77">
-        <v>932.135136269536</v>
+        <v>4842153.338617126</v>
       </c>
       <c r="K77">
-        <v>3551.184482109069</v>
+        <v>3987554.269060651</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3146,22 +3146,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>64.74919604975265</v>
+        <v>1116421.819136134</v>
       </c>
       <c r="G78">
-        <v>193.9071994508138</v>
+        <v>4841382.705075424</v>
       </c>
       <c r="H78">
-        <v>1577.73927513447</v>
+        <v>3986036.281866609</v>
       </c>
       <c r="I78">
-        <v>-668.3435961696576</v>
+        <v>1115761.926760069</v>
       </c>
       <c r="J78">
-        <v>883.3542829944605</v>
+        <v>4842104.687024883</v>
       </c>
       <c r="K78">
-        <v>3518.312649687372</v>
+        <v>3987524.794518641</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3181,22 +3181,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>62.8193725134292</v>
+        <v>1116419.986379042</v>
       </c>
       <c r="G79">
-        <v>213.4069281653991</v>
+        <v>4841399.217873955</v>
       </c>
       <c r="H79">
-        <v>1594.816562780165</v>
+        <v>3986054.402676518</v>
       </c>
       <c r="I79">
-        <v>-610.4566430093179</v>
+        <v>1115813.744850895</v>
       </c>
       <c r="J79">
-        <v>834.5734297193848</v>
+        <v>4842056.03543264</v>
       </c>
       <c r="K79">
-        <v>3468.546094754265</v>
+        <v>3987480.171316768</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3216,22 +3216,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>61.05224642889145</v>
+        <v>1116418.30813603</v>
       </c>
       <c r="G80">
-        <v>232.9066568799844</v>
+        <v>4841415.730672484</v>
       </c>
       <c r="H80">
-        <v>1610.920828838085</v>
+        <v>3986071.491007524</v>
       </c>
       <c r="I80">
-        <v>-551.1442768824253</v>
+        <v>1115866.838914536</v>
       </c>
       <c r="J80">
-        <v>785.7925764443089</v>
+        <v>4842007.383840395</v>
       </c>
       <c r="K80">
-        <v>3401.884817309749</v>
+        <v>3987420.399455033</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3251,22 +3251,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>59.42619126722096</v>
+        <v>1116416.763868342</v>
       </c>
       <c r="G81">
-        <v>252.4063855945697</v>
+        <v>4841432.243471014</v>
       </c>
       <c r="H81">
-        <v>1626.157002272447</v>
+        <v>3986087.658200365</v>
       </c>
       <c r="I81">
-        <v>-490.3713983060345</v>
+        <v>1115921.240370649</v>
       </c>
       <c r="J81">
-        <v>737.0117231692334</v>
+        <v>4841958.732248152</v>
       </c>
       <c r="K81">
-        <v>3318.328817353825</v>
+        <v>3987345.478933436</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3286,22 +3286,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>57.92339903003127</v>
+        <v>1116415.336663689</v>
       </c>
       <c r="G82">
-        <v>271.906114309155</v>
+        <v>4841448.756269544</v>
       </c>
       <c r="H82">
-        <v>1640.613903854312</v>
+        <v>3986102.99850328</v>
       </c>
       <c r="I82">
-        <v>-428.1020435047225</v>
+        <v>1115976.981412569</v>
       </c>
       <c r="J82">
-        <v>688.2308698941576</v>
+        <v>4841910.080655908</v>
       </c>
       <c r="K82">
-        <v>3217.878094886492</v>
+        <v>3987255.409751977</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3321,22 +3321,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>56.52905558710422</v>
+        <v>1116414.012453062</v>
       </c>
       <c r="G83">
-        <v>291.4058430237403</v>
+        <v>4841465.269068073</v>
       </c>
       <c r="H83">
-        <v>1654.367383409584</v>
+        <v>3986117.592400963</v>
       </c>
       <c r="I83">
-        <v>-364.2993631281843</v>
+        <v>1116034.095026366</v>
       </c>
       <c r="J83">
-        <v>639.4500166190818</v>
+        <v>4841861.429063665</v>
       </c>
       <c r="K83">
-        <v>3100.532649907751</v>
+        <v>3987150.191910654</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3356,22 +3356,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>55.2307235873208</v>
+        <v>1116412.779424686</v>
       </c>
       <c r="G84">
-        <v>310.9055717383255</v>
+        <v>4841481.781866604</v>
       </c>
       <c r="H84">
-        <v>1667.482728631097</v>
+        <v>3986131.509170569</v>
       </c>
       <c r="I84">
-        <v>-298.9256004447637</v>
+        <v>1116092.61501036</v>
       </c>
       <c r="J84">
-        <v>590.6691633440063</v>
+        <v>4841812.77747142</v>
       </c>
       <c r="K84">
-        <v>2966.292482417601</v>
+        <v>3987029.82540947</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3391,22 +3391,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>54.01787393283162</v>
+        <v>1116411.627579057</v>
       </c>
       <c r="G85">
-        <v>330.4053004529109</v>
+        <v>4841498.294665135</v>
       </c>
       <c r="H85">
-        <v>1680.016539441744</v>
+        <v>3986144.808870608</v>
       </c>
       <c r="I85">
-        <v>-231.9420689980228</v>
+        <v>1116152.575995122</v>
       </c>
       <c r="J85">
-        <v>541.8883100689305</v>
+        <v>4841764.125879177</v>
       </c>
       <c r="K85">
-        <v>2815.157592416041</v>
+        <v>3986894.310248423</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3426,22 +3426,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>52.88152534161333</v>
+        <v>1116410.548386633</v>
       </c>
       <c r="G86">
-        <v>349.9050291674961</v>
+        <v>4841514.807463664</v>
       </c>
       <c r="H86">
-        <v>1692.018204178417</v>
+        <v>3986157.543907331</v>
       </c>
       <c r="I86">
-        <v>-163.3091297131245</v>
+        <v>1116214.01346397</v>
       </c>
       <c r="J86">
-        <v>493.1074567938549</v>
+        <v>4841715.474286933</v>
       </c>
       <c r="K86">
-        <v>2647.127979903074</v>
+        <v>3986743.646427514</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3461,22 +3461,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>51.81396372905681</v>
+        <v>1116409.534521334</v>
       </c>
       <c r="G87">
-        <v>369.4047578820814</v>
+        <v>4841531.320262194</v>
       </c>
       <c r="H87">
-        <v>1703.531074977684</v>
+        <v>3986169.760281945</v>
       </c>
       <c r="I87">
-        <v>-92.9861674394818</v>
+        <v>1116276.963773967</v>
       </c>
       <c r="J87">
-        <v>444.3266035187792</v>
+        <v>4841666.82269469</v>
       </c>
       <c r="K87">
-        <v>2462.203644878697</v>
+        <v>3986577.833946742</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3496,22 +3496,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>50.80852133647434</v>
+        <v>1116408.579650777</v>
       </c>
       <c r="G88">
-        <v>388.9044865966667</v>
+        <v>4841547.833060723</v>
       </c>
       <c r="H88">
-        <v>1714.593413043572</v>
+        <v>3986181.498593637</v>
       </c>
       <c r="I88">
-        <v>-20.93156691578998</v>
+        <v>1116341.464177435</v>
       </c>
       <c r="J88">
-        <v>395.5457502437034</v>
+        <v>4841618.171102446</v>
       </c>
       <c r="K88">
-        <v>2260.384587342911</v>
+        <v>3986396.872806107</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3531,22 +3531,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>49.85940113917056</v>
+        <v>1116407.678269516</v>
       </c>
       <c r="G89">
-        <v>408.404215311252</v>
+        <v>4841564.345859254</v>
       </c>
       <c r="H89">
-        <v>1725.239155829618</v>
+        <v>3986192.794853639</v>
       </c>
       <c r="I89">
-        <v>52.89731185678098</v>
+        <v>1116407.552843999</v>
       </c>
       <c r="J89">
-        <v>346.7648969686278</v>
+        <v>4841569.519510202</v>
       </c>
       <c r="K89">
-        <v>2041.670807295717</v>
+        <v>3986200.763005611</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3566,22 +3566,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>48.96153596215591</v>
+        <v>1116406.825565245</v>
       </c>
       <c r="G90">
-        <v>427.9039440258372</v>
+        <v>4841580.858657784</v>
       </c>
       <c r="H90">
-        <v>1735.498544938541</v>
+        <v>3986203.681151493</v>
       </c>
       <c r="I90">
-        <v>128.5441588478034</v>
+        <v>1116475.268883177</v>
       </c>
       <c r="J90">
-        <v>297.9840436935521</v>
+        <v>4841520.867917959</v>
       </c>
       <c r="K90">
-        <v>1806.062304737114</v>
+        <v>3985989.504545252</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3601,22 +3601,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>48.11047447990439</v>
+        <v>1116406.017310532</v>
       </c>
       <c r="G91">
-        <v>447.4036727404226</v>
+        <v>4841597.371456313</v>
       </c>
       <c r="H91">
-        <v>1745.398644023471</v>
+        <v>3986214.186204597</v>
       </c>
       <c r="I91">
-        <v>206.0537398521572</v>
+        <v>1116544.652367522</v>
       </c>
       <c r="J91">
-        <v>249.2031904184765</v>
+        <v>4841472.216325715</v>
       </c>
       <c r="K91">
-        <v>1553.559079667103</v>
+        <v>3985763.09742503</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3636,22 +3636,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>47.30228824255822</v>
+        <v>1116405.249774522</v>
       </c>
       <c r="G92">
-        <v>466.9034014550079</v>
+        <v>4841613.884254843</v>
       </c>
       <c r="H92">
-        <v>1754.963769034151</v>
+        <v>3986224.335814751</v>
       </c>
       <c r="I92">
-        <v>285.4719229812355</v>
+        <v>1116615.744356337</v>
       </c>
       <c r="J92">
-        <v>200.4223371434007</v>
+        <v>4841423.564733471</v>
       </c>
       <c r="K92">
-        <v>1284.161132085681</v>
+        <v>3985521.541644946</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3671,22 +3671,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>46.53349529539359</v>
+        <v>1116404.519650394</v>
       </c>
       <c r="G93">
-        <v>486.4031301695931</v>
+        <v>4841630.397053373</v>
       </c>
       <c r="H93">
-        <v>1764.215848029552</v>
+        <v>3986234.153249945</v>
       </c>
       <c r="I93">
-        <v>366.8457058064793</v>
+        <v>1116688.586919973</v>
       </c>
       <c r="J93">
-        <v>151.6414838683249</v>
+        <v>4841374.913141227</v>
       </c>
       <c r="K93">
-        <v>997.8684619928521</v>
+        <v>3985264.837205</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3706,22 +3706,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>45.80099700265238</v>
+        <v>1116403.823995369</v>
       </c>
       <c r="G94">
-        <v>505.9028588841784</v>
+        <v>4841646.909851903</v>
       </c>
       <c r="H94">
-        <v>1773.174723955766</v>
+        <v>3986243.659565645</v>
       </c>
       <c r="I94">
-        <v>450.2232431712859</v>
+        <v>1116763.223164725</v>
       </c>
       <c r="J94">
-        <v>102.8606305932494</v>
+        <v>4841326.261548984</v>
       </c>
       <c r="K94">
-        <v>694.6810693886144</v>
+        <v>3984992.984105191</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3741,22 +3741,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>45.10202546091148</v>
+        <v>1116403.160180763</v>
       </c>
       <c r="G95">
-        <v>525.4025875987636</v>
+        <v>4841663.422650433</v>
       </c>
       <c r="H95">
-        <v>1781.85841090549</v>
+        <v>3986252.873876711</v>
       </c>
       <c r="I95">
-        <v>535.6538756877749</v>
+        <v>1116839.69725834</v>
       </c>
       <c r="J95">
-        <v>54.07977731817357</v>
+        <v>4841277.60995674</v>
       </c>
       <c r="K95">
-        <v>374.5989542729671</v>
+        <v>3984705.98234552</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3776,22 +3776,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>44.43409946681317</v>
+        <v>1116402.525850172</v>
       </c>
       <c r="G96">
-        <v>544.902316313349</v>
+        <v>4841679.935448963</v>
       </c>
       <c r="H96">
-        <v>1790.283312180481</v>
+        <v>3986261.813588783</v>
       </c>
       <c r="I96">
-        <v>623.1881589352409</v>
+        <v>1116918.054456156</v>
       </c>
       <c r="J96">
-        <v>5.298924043097784</v>
+        <v>4841228.958364496</v>
       </c>
       <c r="K96">
-        <v>37.62211664591117</v>
+        <v>3984403.831925987</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3811,22 +3811,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>43.79498744222471</v>
+        <v>1116401.918884264</v>
       </c>
       <c r="G97">
-        <v>564.4020450279343</v>
+        <v>4841696.448247492</v>
       </c>
       <c r="H97">
-        <v>1798.464406791848</v>
+        <v>3986270.494596176</v>
       </c>
       <c r="I97">
-        <v>712.8778933776111</v>
+        <v>1116998.34112788</v>
       </c>
       <c r="J97">
-        <v>-43.48192923197777</v>
+        <v>4841180.306772253</v>
       </c>
       <c r="K97">
-        <v>-316.2494434925525</v>
+        <v>3984086.532846591</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3846,22 +3846,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>43.18267605419518</v>
+        <v>1116401.337370971</v>
       </c>
       <c r="G98">
-        <v>583.9017737425195</v>
+        <v>4841712.961046022</v>
       </c>
       <c r="H98">
-        <v>1806.415409726244</v>
+        <v>3986278.931451943</v>
       </c>
       <c r="I98">
-        <v>804.7761550175825</v>
+        <v>1117080.604785033</v>
       </c>
       <c r="J98">
-        <v>-92.26278250705356</v>
+        <v>4841131.655180009</v>
       </c>
       <c r="K98">
-        <v>-687.0157261424259</v>
+        <v>3983754.085107332</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3881,22 +3881,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>42.59534352423177</v>
+        <v>1116400.779580147</v>
       </c>
       <c r="G99">
-        <v>603.4015024571049</v>
+        <v>4841729.473844552</v>
       </c>
       <c r="H99">
-        <v>1814.148910285337</v>
+        <v>3986287.137514667</v>
       </c>
       <c r="I99">
-        <v>898.9373268055882</v>
+        <v>1117164.894109062</v>
       </c>
       <c r="J99">
-        <v>-141.0436357821293</v>
+        <v>4841083.003587765</v>
       </c>
       <c r="K99">
-        <v>-1074.676731303709</v>
+        <v>3983406.488708211</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3916,22 +3916,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>42.03133682080364</v>
+        <v>1116400.243941906</v>
       </c>
       <c r="G100">
-        <v>622.9012311716901</v>
+        <v>4841745.986643082</v>
       </c>
       <c r="H100">
-        <v>1821.67649200274</v>
+        <v>3986295.125075702</v>
       </c>
       <c r="I100">
-        <v>995.4171308221838</v>
+        <v>1117251.25898015</v>
       </c>
       <c r="J100">
-        <v>-189.8244890572051</v>
+        <v>4841034.351995521</v>
       </c>
       <c r="K100">
-        <v>-1479.2324589764</v>
+        <v>3983043.743649228</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3951,22 +3951,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>41.48915208471328</v>
+        <v>1116399.729028028</v>
       </c>
       <c r="G101">
-        <v>642.4009598862754</v>
+        <v>4841762.499441613</v>
       </c>
       <c r="H101">
-        <v>1829.00883700617</v>
+        <v>3986302.905469917</v>
       </c>
       <c r="I101">
-        <v>1094.272661252895</v>
+        <v>1117339.750506735</v>
       </c>
       <c r="J101">
-        <v>-238.6053423322805</v>
+        <v>4840985.700403278</v>
       </c>
       <c r="K101">
-        <v>-1900.682909160497</v>
+        <v>3982665.849930382</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3986,22 +3986,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>40.967417759477</v>
+        <v>1116399.233535945</v>
       </c>
       <c r="G102">
-        <v>661.9006886008607</v>
+        <v>4841779.012240142</v>
       </c>
       <c r="H102">
-        <v>1836.155817184922</v>
+        <v>3986310.489172431</v>
       </c>
       <c r="I102">
-        <v>1195.562418175044</v>
+        <v>1117430.421055752</v>
       </c>
       <c r="J102">
-        <v>-287.3861956073562</v>
+        <v>4840937.048811034</v>
       </c>
       <c r="K102">
-        <v>-2339.028081856006</v>
+        <v>3982272.807551675</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4021,22 +4021,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>40.46487999584835</v>
+        <v>1116398.756274872</v>
       </c>
       <c r="G103">
-        <v>681.400417315446</v>
+        <v>4841795.525038673</v>
       </c>
       <c r="H103">
-        <v>1843.126574115256</v>
+        <v>3986317.885883424</v>
       </c>
       <c r="I103">
-        <v>1299.346342176532</v>
+        <v>1117523.324283622</v>
       </c>
       <c r="J103">
-        <v>-336.167048882432</v>
+        <v>4840888.39721879</v>
       </c>
       <c r="K103">
-        <v>-2794.267977062924</v>
+        <v>3981864.616513104</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4056,22 +4056,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>39.98038997690034</v>
+        <v>1116398.296153778</v>
       </c>
       <c r="G104">
-        <v>700.9001460300312</v>
+        <v>4841812.037837203</v>
       </c>
       <c r="H104">
-        <v>1849.929589367283</v>
+        <v>3986325.10460274</v>
       </c>
       <c r="I104">
-        <v>1405.685849827098</v>
+        <v>1117618.51516801</v>
       </c>
       <c r="J104">
-        <v>-384.9479021575078</v>
+        <v>4840839.745626546</v>
       </c>
       <c r="K104">
-        <v>-3266.40259478125</v>
+        <v>3981441.276814671</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4091,22 +4091,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>39.51289287202553</v>
+        <v>1116397.852170886</v>
       </c>
       <c r="G105">
-        <v>720.3998747446166</v>
+        <v>4841828.550635732</v>
       </c>
       <c r="H105">
-        <v>1856.572746549795</v>
+        <v>3986332.153695723</v>
       </c>
       <c r="I105">
-        <v>1514.643870023006</v>
+        <v>1117716.050040351</v>
       </c>
       <c r="J105">
-        <v>-433.7287554325836</v>
+        <v>4840791.094034303</v>
       </c>
       <c r="K105">
-        <v>-3755.431935010985</v>
+        <v>3981002.788456375</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4126,22 +4126,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>39.06141817813516</v>
+        <v>1116397.423404508</v>
       </c>
       <c r="G106">
-        <v>739.8996034592018</v>
+        <v>4841845.063434262</v>
       </c>
       <c r="H106">
-        <v>1863.063386231427</v>
+        <v>3986339.040951492</v>
       </c>
       <c r="I106">
-        <v>1626.284881226696</v>
+        <v>1117815.986619194</v>
       </c>
       <c r="J106">
-        <v>-482.5096087076589</v>
+        <v>4840742.44244206</v>
       </c>
       <c r="K106">
-        <v>-4261.355997752125</v>
+        <v>3980549.151438218</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4161,22 +4161,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>38.62507124679927</v>
+        <v>1116397.009004995</v>
       </c>
       <c r="G107">
-        <v>759.3993321737871</v>
+        <v>4841861.576232792</v>
       </c>
       <c r="H107">
-        <v>1869.408354697637</v>
+        <v>3986345.773634682</v>
       </c>
       <c r="I107">
-        <v>1740.674949623432</v>
+        <v>1117918.384044351</v>
       </c>
       <c r="J107">
-        <v>-531.2904619827347</v>
+        <v>4840693.790849814</v>
       </c>
       <c r="K107">
-        <v>-4784.174783004678</v>
+        <v>3980080.365760198</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4184,34 +4184,34 @@
         <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>184.7954543401043</v>
+        <v>1116579.711934502</v>
       </c>
       <c r="G108">
-        <v>-93.96411721780808</v>
+        <v>4841123.130473906</v>
       </c>
       <c r="H108">
-        <v>968.0878475224586</v>
+        <v>3985231.683848789</v>
       </c>
       <c r="I108">
-        <v>-1022.482041062038</v>
+        <v>1114861.015733034</v>
       </c>
       <c r="J108">
-        <v>1597.859900881344</v>
+        <v>4843225.037289071</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984370.793876772</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4219,34 +4219,34 @@
         <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>184.7954543401043</v>
+        <v>1116579.711934502</v>
       </c>
       <c r="G109">
-        <v>-93.96411721780808</v>
+        <v>4841123.130473906</v>
       </c>
       <c r="H109">
-        <v>968.0878475224586</v>
+        <v>3985231.683848789</v>
       </c>
       <c r="I109">
-        <v>-1002.295522970387</v>
+        <v>1114890.629720422</v>
       </c>
       <c r="J109">
-        <v>1558.99068990366</v>
+        <v>4843176.38568313</v>
       </c>
       <c r="K109">
-        <v>456.9707171278534</v>
+        <v>3984674.589904791</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4254,34 +4254,34 @@
         <v>66</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>184.7954543401043</v>
+        <v>1116579.711934502</v>
       </c>
       <c r="G110">
-        <v>-93.96411721780808</v>
+        <v>4841123.130473906</v>
       </c>
       <c r="H110">
-        <v>968.0878475224586</v>
+        <v>3985231.683848789</v>
       </c>
       <c r="I110">
-        <v>-981.6119304419852</v>
+        <v>1114920.972925004</v>
       </c>
       <c r="J110">
-        <v>1520.121478925977</v>
+        <v>4843127.734077187</v>
       </c>
       <c r="K110">
-        <v>891.1547796211436</v>
+        <v>3984963.237270302</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4289,34 +4289,34 @@
         <v>66</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>184.7954543401043</v>
+        <v>1116579.711934502</v>
       </c>
       <c r="G111">
-        <v>-93.96411721780808</v>
+        <v>4841123.130473906</v>
       </c>
       <c r="H111">
-        <v>968.0878475224586</v>
+        <v>3985231.683848789</v>
       </c>
       <c r="I111">
-        <v>-960.4190234761278</v>
+        <v>1114952.063303085</v>
       </c>
       <c r="J111">
-        <v>1481.252267948293</v>
+        <v>4843079.082471245</v>
       </c>
       <c r="K111">
-        <v>1302.552187479873</v>
+        <v>3985236.735973304</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4324,34 +4324,34 @@
         <v>66</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>184.7954543401043</v>
+        <v>1116579.711934502</v>
       </c>
       <c r="G112">
-        <v>-93.96411721780808</v>
+        <v>4841123.130473906</v>
       </c>
       <c r="H112">
-        <v>968.0878475224586</v>
+        <v>3985231.683848789</v>
       </c>
       <c r="I112">
-        <v>-938.7042606733532</v>
+        <v>1114983.919253122</v>
       </c>
       <c r="J112">
-        <v>1442.38305697061</v>
+        <v>4843030.430865304</v>
       </c>
       <c r="K112">
-        <v>1691.16294070404</v>
+        <v>3985495.086013799</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4359,34 +4359,34 @@
         <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>184.7954543401043</v>
+        <v>1116579.711934502</v>
       </c>
       <c r="G113">
-        <v>-93.96411721780808</v>
+        <v>4841123.130473906</v>
       </c>
       <c r="H113">
-        <v>968.0878475224586</v>
+        <v>3985231.683848789</v>
       </c>
       <c r="I113">
-        <v>-916.4547918137755</v>
+        <v>1115016.559626623</v>
       </c>
       <c r="J113">
-        <v>1403.513845992926</v>
+        <v>4842981.779259362</v>
       </c>
       <c r="K113">
-        <v>2056.987039293647</v>
+        <v>3985738.287391786</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4394,34 +4394,34 @@
         <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>184.7954543401043</v>
+        <v>1116579.711934502</v>
       </c>
       <c r="G114">
-        <v>-93.96411721780808</v>
+        <v>4841123.130473906</v>
       </c>
       <c r="H114">
-        <v>968.0878475224586</v>
+        <v>3985231.683848789</v>
       </c>
       <c r="I114">
-        <v>-893.6574502526669</v>
+        <v>1115050.003739292</v>
       </c>
       <c r="J114">
-        <v>1364.644635015243</v>
+        <v>4842933.127653419</v>
       </c>
       <c r="K114">
-        <v>2400.024483248692</v>
+        <v>3985966.340107264</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4429,34 +4429,34 @@
         <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>184.7954543401043</v>
+        <v>1116579.711934502</v>
       </c>
       <c r="G115">
-        <v>-93.96411721780808</v>
+        <v>4841123.130473906</v>
       </c>
       <c r="H115">
-        <v>968.0878475224586</v>
+        <v>3985231.683848789</v>
       </c>
       <c r="I115">
-        <v>-870.2987451287855</v>
+        <v>1115084.271382468</v>
       </c>
       <c r="J115">
-        <v>1325.775424037559</v>
+        <v>4842884.476047478</v>
       </c>
       <c r="K115">
-        <v>2720.275272569176</v>
+        <v>3986179.244160234</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4464,34 +4464,34 @@
         <v>66</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>184.7954543401043</v>
+        <v>1116579.711934502</v>
       </c>
       <c r="G116">
-        <v>-78.44799654925592</v>
+        <v>4841139.64328823</v>
       </c>
       <c r="H116">
-        <v>968.0878475224586</v>
+        <v>3985231.683848789</v>
       </c>
       <c r="I116">
-        <v>-846.3648533808434</v>
+        <v>1115119.382834831</v>
       </c>
       <c r="J116">
-        <v>1286.906213059876</v>
+        <v>4842835.824441535</v>
       </c>
       <c r="K116">
-        <v>3017.739407255096</v>
+        <v>3986376.999550697</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4499,34 +4499,34 @@
         <v>66</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>143.4228301511997</v>
+        <v>1116531.031318062</v>
       </c>
       <c r="G117">
-        <v>-62.93187588070376</v>
+        <v>4841156.156102552</v>
       </c>
       <c r="H117">
-        <v>1192.677713830508</v>
+        <v>3985430.938423333</v>
       </c>
       <c r="I117">
-        <v>-821.8416115673848</v>
+        <v>1115155.358874407</v>
       </c>
       <c r="J117">
-        <v>1248.037002082193</v>
+        <v>4842787.172835594</v>
       </c>
       <c r="K117">
-        <v>3292.416887306455</v>
+        <v>3986559.606278651</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4534,34 +4534,34 @@
         <v>66</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>119.1184889150913</v>
+        <v>1116502.433897987</v>
       </c>
       <c r="G118">
-        <v>-47.41575521215162</v>
+        <v>4841172.668916875</v>
       </c>
       <c r="H118">
-        <v>1326.454924165401</v>
+        <v>3985549.624638197</v>
       </c>
       <c r="I118">
-        <v>-796.7145074852386</v>
+        <v>1115192.22079086</v>
       </c>
       <c r="J118">
-        <v>1209.167791104509</v>
+        <v>4842738.521229652</v>
       </c>
       <c r="K118">
-        <v>3544.307712723254</v>
+        <v>3986727.064344098</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4569,34 +4569,34 @@
         <v>66</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>103.7758056701725</v>
+        <v>1116484.381108423</v>
       </c>
       <c r="G119">
-        <v>-31.89963454359946</v>
+        <v>4841189.181731199</v>
       </c>
       <c r="H119">
-        <v>1422.056454735758</v>
+        <v>3985634.441654265</v>
       </c>
       <c r="I119">
-        <v>-770.968671581581</v>
+        <v>1115229.990398093</v>
       </c>
       <c r="J119">
-        <v>1170.298580126826</v>
+        <v>4842689.869623709</v>
       </c>
       <c r="K119">
-        <v>3773.411883505491</v>
+        <v>3986879.373747036</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4604,34 +4604,34 @@
         <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>93.07588065477364</v>
+        <v>1116471.791166261</v>
       </c>
       <c r="G120">
-        <v>-16.3835138750473</v>
+        <v>4841205.694545521</v>
       </c>
       <c r="H120">
-        <v>1496.501315372337</v>
+        <v>3985700.488619237</v>
       </c>
       <c r="I120">
-        <v>-744.5888681545309</v>
+        <v>1115268.690047157</v>
       </c>
       <c r="J120">
-        <v>1131.429369149142</v>
+        <v>4842641.218017768</v>
       </c>
       <c r="K120">
-        <v>3979.729399653166</v>
+        <v>3987016.534487467</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4639,34 +4639,34 @@
         <v>66</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>85.0934161670916</v>
+        <v>1116462.398692383</v>
       </c>
       <c r="G121">
-        <v>-0.8673932064951493</v>
+        <v>4841222.207359845</v>
       </c>
       <c r="H121">
-        <v>1557.477430703439</v>
+        <v>3985754.586206618</v>
       </c>
       <c r="I121">
-        <v>-717.559486337064</v>
+        <v>1115308.342639477</v>
       </c>
       <c r="J121">
-        <v>1092.560158171458</v>
+        <v>4842592.566411827</v>
       </c>
       <c r="K121">
-        <v>4163.260261166278</v>
+        <v>3987138.54656539</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4674,34 +4674,34 @@
         <v>66</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>78.85224365584212</v>
+        <v>1116455.05508943</v>
       </c>
       <c r="G122">
-        <v>14.64872746205701</v>
+        <v>4841238.720174167</v>
       </c>
       <c r="H122">
-        <v>1609.119749348195</v>
+        <v>3985800.402914198</v>
       </c>
       <c r="I122">
-        <v>-689.8645308589171</v>
+        <v>1115348.971640402</v>
       </c>
       <c r="J122">
-        <v>1053.690947193775</v>
+        <v>4842543.914805884</v>
       </c>
       <c r="K122">
-        <v>4324.00446804483</v>
+        <v>3987245.409980804</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4709,34 +4709,34 @@
         <v>66</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>73.80268065956982</v>
+        <v>1116449.113579936</v>
       </c>
       <c r="G123">
-        <v>30.16484813060917</v>
+        <v>4841255.232988492</v>
       </c>
       <c r="H123">
-        <v>1653.910055304604</v>
+        <v>3985840.140563557</v>
       </c>
       <c r="I123">
-        <v>-661.4876125810125</v>
+        <v>1115390.601093097</v>
       </c>
       <c r="J123">
-        <v>1014.821736216092</v>
+        <v>4842495.263199942</v>
       </c>
       <c r="K123">
-        <v>4461.96202028882</v>
+        <v>3987337.12473371</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4744,34 +4744,34 @@
         <v>66</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>69.60974411257166</v>
+        <v>1116444.180009977</v>
       </c>
       <c r="G124">
-        <v>45.68096879916132</v>
+        <v>4841271.745802815</v>
       </c>
       <c r="H124">
-        <v>1693.455463297683</v>
+        <v>3985875.224975754</v>
       </c>
       <c r="I124">
-        <v>-632.4119387968009</v>
+        <v>1115433.255632767</v>
       </c>
       <c r="J124">
-        <v>975.952525238408</v>
+        <v>4842446.611594001</v>
       </c>
       <c r="K124">
-        <v>4577.132917898249</v>
+        <v>3987413.690824109</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4779,34 +4779,34 @@
         <v>66</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>66.05654586826736</v>
+        <v>1116439.999180643</v>
       </c>
       <c r="G125">
-        <v>61.19708946771349</v>
+        <v>4841288.258617138</v>
       </c>
       <c r="H125">
-        <v>1728.856561129599</v>
+        <v>3985906.632584667</v>
       </c>
       <c r="I125">
-        <v>-602.6203032947823</v>
+        <v>1115476.960501234</v>
       </c>
       <c r="J125">
-        <v>937.0833142607245</v>
+        <v>4842397.959988059</v>
       </c>
       <c r="K125">
-        <v>4669.517160873115</v>
+        <v>3987475.108252</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4814,34 +4814,34 @@
         <v>66</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>62.99581223212144</v>
+        <v>1116436.397804054</v>
       </c>
       <c r="G126">
-        <v>76.71321013626564</v>
+        <v>4841304.771431461</v>
       </c>
       <c r="H126">
-        <v>1760.900177158999</v>
+        <v>3985935.061458969</v>
       </c>
       <c r="I126">
-        <v>-572.0950761763285</v>
+        <v>1115521.74156188</v>
       </c>
       <c r="J126">
-        <v>898.214103283041</v>
+        <v>4842349.308382116</v>
       </c>
       <c r="K126">
-        <v>4739.114749213421</v>
+        <v>3987521.377017382</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4849,34 +4849,34 @@
         <v>66</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>60.32363361435057</v>
+        <v>1116433.253616203</v>
       </c>
       <c r="G127">
-        <v>92.22933080481779</v>
+        <v>4841321.284245784</v>
       </c>
       <c r="H127">
-        <v>1790.168361592913</v>
+        <v>3985961.027989574</v>
       </c>
       <c r="I127">
-        <v>-540.818193422777</v>
+        <v>1115567.625314946</v>
       </c>
       <c r="J127">
-        <v>859.3448923053575</v>
+        <v>4842300.656776175</v>
       </c>
       <c r="K127">
-        <v>4785.925682919164</v>
+        <v>3987552.497120257</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4884,34 +4884,34 @@
         <v>66</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>57.96435245477489</v>
+        <v>1116430.477595502</v>
       </c>
       <c r="G128">
-        <v>107.74545147337</v>
+        <v>4841337.797060107</v>
       </c>
       <c r="H128">
-        <v>1817.103808483067</v>
+        <v>3985984.92493158</v>
       </c>
       <c r="I128">
-        <v>-508.7711462056235</v>
+        <v>1115614.638913219</v>
       </c>
       <c r="J128">
-        <v>820.4756813276741</v>
+        <v>4842252.005170233</v>
       </c>
       <c r="K128">
-        <v>4809.949961990346</v>
+        <v>3987568.468560623</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4919,34 +4919,34 @@
         <v>66</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>55.86141445100402</v>
+        <v>1116428.00319799</v>
       </c>
       <c r="G129">
-        <v>123.2615721419221</v>
+        <v>4841354.30987443</v>
       </c>
       <c r="H129">
-        <v>1842.051073107002</v>
+        <v>3986007.057972043</v>
       </c>
       <c r="I129">
-        <v>-475.9349699334905</v>
+        <v>1115662.810178098</v>
       </c>
       <c r="J129">
-        <v>781.6064703499906</v>
+        <v>4842203.353564291</v>
       </c>
       <c r="K129">
-        <v>4811.187586426966</v>
+        <v>3987569.291338481</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4954,34 +4954,34 @@
         <v>66</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>53.97159253972135</v>
+        <v>1116425.779561046</v>
       </c>
       <c r="G130">
-        <v>138.7776928104743</v>
+        <v>4841370.822688754</v>
       </c>
       <c r="H130">
-        <v>1865.283594416948</v>
+        <v>3986027.66970411</v>
       </c>
       <c r="I130">
-        <v>-442.2902330293846</v>
+        <v>1115712.167616057</v>
       </c>
       <c r="J130">
-        <v>742.737259372307</v>
+        <v>4842154.701958349</v>
       </c>
       <c r="K130">
-        <v>4789.638556229024</v>
+        <v>3987554.965453831</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4989,34 +4989,34 @@
         <v>66</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>52.26120839695724</v>
+        <v>1116423.767057463</v>
       </c>
       <c r="G131">
-        <v>154.2938134790264</v>
+        <v>4841387.335503076</v>
       </c>
       <c r="H131">
-        <v>1887.022012746388</v>
+        <v>3986046.955878356</v>
       </c>
       <c r="I131">
-        <v>-407.8170254316053</v>
+        <v>1115762.740435519</v>
       </c>
       <c r="J131">
-        <v>703.8680483946237</v>
+        <v>4842106.050352407</v>
       </c>
       <c r="K131">
-        <v>4745.302871396522</v>
+        <v>3987525.490906674</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5024,34 +5024,34 @@
         <v>66</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>50.70358426949075</v>
+        <v>1116421.934297173</v>
       </c>
       <c r="G132">
-        <v>169.8099341475786</v>
+        <v>4841403.848317401</v>
       </c>
       <c r="H132">
-        <v>1907.446944934681</v>
+        <v>3986065.07673679</v>
       </c>
       <c r="I132">
-        <v>-372.4949468115001</v>
+        <v>1115814.558564134</v>
       </c>
       <c r="J132">
-        <v>664.9988374169401</v>
+        <v>4842057.398746465</v>
       </c>
       <c r="K132">
-        <v>4678.180531929457</v>
+        <v>3987480.867697008</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5059,34 +5059,34 @@
         <v>66</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>49.27727861317397</v>
+        <v>1116420.256051233</v>
       </c>
       <c r="G133">
-        <v>185.3260548161307</v>
+        <v>4841420.361131723</v>
       </c>
       <c r="H133">
-        <v>1926.708115033796</v>
+        <v>3986082.165113556</v>
       </c>
       <c r="I133">
-        <v>-336.3030945010915</v>
+        <v>1115867.652666494</v>
       </c>
       <c r="J133">
-        <v>626.1296264392565</v>
+        <v>4842008.747140523</v>
       </c>
       <c r="K133">
-        <v>4588.271537827831</v>
+        <v>3987421.095824835</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5094,34 +5094,34 @@
         <v>66</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>47.96483594433046</v>
+        <v>1116418.711780851</v>
       </c>
       <c r="G134">
-        <v>200.8421754846829</v>
+        <v>4841436.873946046</v>
       </c>
       <c r="H134">
-        <v>1944.931021133545</v>
+        <v>3986098.33234969</v>
       </c>
       <c r="I134">
-        <v>-299.2200511234328</v>
+        <v>1115922.054162279</v>
       </c>
       <c r="J134">
-        <v>587.2604154615731</v>
+        <v>4841960.095534581</v>
       </c>
       <c r="K134">
-        <v>4475.575889091643</v>
+        <v>3987346.175290153</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5129,34 +5129,34 @@
         <v>66</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>46.7518828410247</v>
+        <v>1116417.284573707</v>
       </c>
       <c r="G135">
-        <v>216.3582961532351</v>
+        <v>4841453.38676037</v>
       </c>
       <c r="H135">
-        <v>1962.221895456721</v>
+        <v>3986113.672693684</v>
       </c>
       <c r="I135">
-        <v>-261.2238719183732</v>
+        <v>1115977.795244849</v>
       </c>
       <c r="J135">
-        <v>548.3912044838895</v>
+        <v>4841911.443928639</v>
       </c>
       <c r="K135">
-        <v>4340.093585720894</v>
+        <v>3987256.106092964</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5164,34 +5164,34 @@
         <v>66</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>45.62646233091136</v>
+        <v>1116415.960360771</v>
       </c>
       <c r="G136">
-        <v>231.8744168217872</v>
+        <v>4841469.899574692</v>
       </c>
       <c r="H136">
-        <v>1978.671456598845</v>
+        <v>3986128.266630448</v>
       </c>
       <c r="I136">
-        <v>-222.292071756233</v>
+        <v>1116034.908900296</v>
       </c>
       <c r="J136">
-        <v>509.521993506206</v>
+        <v>4841862.792322697</v>
       </c>
       <c r="K136">
-        <v>4181.824627715582</v>
+        <v>3987150.888233267</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5199,34 +5199,34 @@
         <v>66</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>44.57853581832605</v>
+        <v>1116414.727330243</v>
       </c>
       <c r="G137">
-        <v>247.3905374903394</v>
+        <v>4841486.412389016</v>
       </c>
       <c r="H137">
-        <v>1994.35779053742</v>
+        <v>3986142.183437321</v>
       </c>
       <c r="I137">
-        <v>-182.4016118316996</v>
+        <v>1116093.428926966</v>
       </c>
       <c r="J137">
-        <v>470.6527825285226</v>
+        <v>4841814.140716755</v>
       </c>
       <c r="K137">
-        <v>4000.769015075711</v>
+        <v>3987030.521711061</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5234,34 +5234,34 @@
         <v>66</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>43.59960492165929</v>
+        <v>1116413.575482604</v>
       </c>
       <c r="G138">
-        <v>262.9066581588916</v>
+        <v>4841502.925203339</v>
       </c>
       <c r="H138">
-        <v>2009.34859242468</v>
+        <v>3986155.483172974</v>
       </c>
       <c r="I138">
-        <v>-141.5288860300748</v>
+        <v>1116153.389955455</v>
       </c>
       <c r="J138">
-        <v>431.783571550839</v>
+        <v>4841765.489110813</v>
       </c>
       <c r="K138">
-        <v>3796.926747801275</v>
+        <v>3986895.006526348</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5269,34 +5269,34 @@
         <v>66</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>42.68242055242611</v>
+        <v>1116412.496288297</v>
       </c>
       <c r="G139">
-        <v>278.4227788274437</v>
+        <v>4841519.438017662</v>
       </c>
       <c r="H139">
-        <v>2023.702932146477</v>
+        <v>3986168.2182438</v>
       </c>
       <c r="I139">
-        <v>-99.64970695780301</v>
+        <v>1116214.827469107</v>
       </c>
       <c r="J139">
-        <v>392.9143605731557</v>
+        <v>4841716.837504871</v>
       </c>
       <c r="K139">
-        <v>3570.29782589228</v>
+        <v>3986744.342679126</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5304,34 +5304,34 @@
         <v>66</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>41.82075641890485</v>
+        <v>1116411.482421229</v>
       </c>
       <c r="G140">
-        <v>293.9388994959958</v>
+        <v>4841535.950831985</v>
       </c>
       <c r="H140">
-        <v>2037.472660117704</v>
+        <v>3986180.434651127</v>
       </c>
       <c r="I140">
-        <v>-56.73929162901472</v>
+        <v>1116277.777825011</v>
       </c>
       <c r="J140">
-        <v>354.0451495954721</v>
+        <v>4841668.18589893</v>
       </c>
       <c r="K140">
-        <v>3320.882249348722</v>
+        <v>3986578.530169396</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5339,34 +5339,34 @@
         <v>66</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>41.00923075348172</v>
+        <v>1116410.527549006</v>
       </c>
       <c r="G141">
-        <v>309.455020164548</v>
+        <v>4841552.463646309</v>
       </c>
       <c r="H141">
-        <v>2050.703537850017</v>
+        <v>3986192.172994253</v>
       </c>
       <c r="I141">
-        <v>-12.77224679961347</v>
+        <v>1116342.278275516</v>
       </c>
       <c r="J141">
-        <v>315.1759386177886</v>
+        <v>4841619.534292988</v>
       </c>
       <c r="K141">
-        <v>3048.680018170603</v>
+        <v>3986397.568997159</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5374,34 +5374,34 @@
         <v>66</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>40.24316458662245</v>
+        <v>1116409.626166172</v>
       </c>
       <c r="G142">
-        <v>324.9711408331002</v>
+        <v>4841568.976460632</v>
       </c>
       <c r="H142">
-        <v>2063.436155523868</v>
+        <v>3986203.469284505</v>
       </c>
       <c r="I142">
-        <v>32.27744605977236</v>
+        <v>1116408.366990275</v>
       </c>
       <c r="J142">
-        <v>276.3067276401052</v>
+        <v>4841570.882687045</v>
       </c>
       <c r="K142">
-        <v>2753.691132357922</v>
+        <v>3986201.459162413</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5409,34 +5409,34 @@
         <v>66</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>39.51846803452506</v>
+        <v>1116408.773460414</v>
       </c>
       <c r="G143">
-        <v>340.4872615016523</v>
+        <v>4841585.489274955</v>
       </c>
       <c r="H143">
-        <v>2075.706682974748</v>
+        <v>3986214.35561151</v>
       </c>
       <c r="I143">
-        <v>78.43644616086301</v>
+        <v>1116476.083078835</v>
       </c>
       <c r="J143">
-        <v>237.4375166624216</v>
+        <v>4841522.231081104</v>
       </c>
       <c r="K143">
-        <v>2435.91559191068</v>
+        <v>3985990.20066516</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5444,34 +5444,34 @@
         <v>66</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>38.83154828577028</v>
+        <v>1116407.965204291</v>
       </c>
       <c r="G144">
-        <v>356.0033821702045</v>
+        <v>4841602.002089278</v>
       </c>
       <c r="H144">
-        <v>2087.547489118107</v>
+        <v>3986224.860692746</v>
       </c>
       <c r="I144">
-        <v>125.732069173942</v>
+        <v>1116545.466613778</v>
       </c>
       <c r="J144">
-        <v>198.5683056847382</v>
+        <v>4841473.579475163</v>
       </c>
       <c r="K144">
-        <v>2095.353396828878</v>
+        <v>3985763.793505398</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5479,34 +5479,34 @@
         <v>66</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>38.17923455910955</v>
+        <v>1116407.197666941</v>
       </c>
       <c r="G145">
-        <v>371.5195028387566</v>
+        <v>4841618.514903601</v>
       </c>
       <c r="H145">
-        <v>2098.987656536319</v>
+        <v>3986235.010330079</v>
       </c>
       <c r="I145">
-        <v>174.1923033925423</v>
+        <v>1116616.558654438</v>
       </c>
       <c r="J145">
-        <v>159.6990947070547</v>
+        <v>4841424.927869219</v>
       </c>
       <c r="K145">
-        <v>1732.00454711251</v>
+        <v>3985522.237683128</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5514,34 +5514,34 @@
         <v>66</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>37.55871645422049</v>
+        <v>1116406.467541539</v>
       </c>
       <c r="G146">
-        <v>387.0356235073087</v>
+        <v>4841635.027717925</v>
       </c>
       <c r="H146">
-        <v>2110.053411825007</v>
+        <v>3986244.827791562</v>
       </c>
       <c r="I146">
-        <v>223.845826296178</v>
+        <v>1116689.401271195</v>
       </c>
       <c r="J146">
-        <v>120.8298837293711</v>
+        <v>4841376.276263278</v>
       </c>
       <c r="K146">
-        <v>1345.869042761583</v>
+        <v>3985265.533198351</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5549,34 +5549,34 @@
         <v>66</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>36.96749296014115</v>
+        <v>1116405.7718853</v>
       </c>
       <c r="G147">
-        <v>402.551744175861</v>
+        <v>4841651.540532247</v>
       </c>
       <c r="H147">
-        <v>2120.768487724215</v>
+        <v>3986254.334132719</v>
       </c>
       <c r="I147">
-        <v>274.7220215209115</v>
+        <v>1116764.037570376</v>
       </c>
       <c r="J147">
-        <v>81.96067275168774</v>
+        <v>4841327.624657337</v>
       </c>
       <c r="K147">
-        <v>936.9468837760951</v>
+        <v>3984993.680051065</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5584,34 +5584,34 @@
         <v>66</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>36.40333001086847</v>
+        <v>1116405.108069536</v>
       </c>
       <c r="G148">
-        <v>418.0678648444131</v>
+        <v>4841668.053346571</v>
       </c>
       <c r="H148">
-        <v>2131.154429612194</v>
+        <v>3986263.54846846</v>
       </c>
       <c r="I148">
-        <v>326.8509962478139</v>
+        <v>1116840.51171976</v>
       </c>
       <c r="J148">
-        <v>43.09146177400417</v>
+        <v>4841278.973051394</v>
       </c>
       <c r="K148">
-        <v>505.2380701560439</v>
+        <v>3984706.678241272</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5619,34 +5619,34 @@
         <v>66</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>35.86422494546356</v>
+        <v>1116404.473737839</v>
       </c>
       <c r="G149">
-        <v>433.5839855129653</v>
+        <v>4841684.566160894</v>
       </c>
       <c r="H149">
-        <v>2141.230856314425</v>
+        <v>3986272.488204471</v>
       </c>
       <c r="I149">
-        <v>380.2635990195884</v>
+        <v>1116918.868974718</v>
       </c>
       <c r="J149">
-        <v>4.222250796320614</v>
+        <v>4841230.321445452</v>
       </c>
       <c r="K149">
-        <v>50.74260190143157</v>
+        <v>3984404.52776897</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5654,34 +5654,34 @@
         <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>35.34837658372709</v>
+        <v>1116403.866770871</v>
       </c>
       <c r="G150">
-        <v>449.1001061815174</v>
+        <v>4841701.078975216</v>
       </c>
       <c r="H150">
-        <v>2151.015683163395</v>
+        <v>3986281.16923511</v>
       </c>
       <c r="I150">
-        <v>434.9914379959238</v>
+        <v>1116999.155704991</v>
       </c>
       <c r="J150">
-        <v>-34.64696018136276</v>
+        <v>4841181.669839511</v>
       </c>
       <c r="K150">
-        <v>-426.5395209877411</v>
+        <v>3984087.22863416</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5689,34 +5689,34 @@
         <v>66</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>34.85415989833299</v>
+        <v>1116403.285256564</v>
       </c>
       <c r="G151">
-        <v>464.6162268500696</v>
+        <v>4841717.591789541</v>
       </c>
       <c r="H151">
-        <v>2160.525313681617</v>
+        <v>3986289.60611347</v>
       </c>
       <c r="I151">
-        <v>491.0668996583632</v>
+        <v>1117081.419422135</v>
       </c>
       <c r="J151">
-        <v>-73.51617115904632</v>
+        <v>4841133.018233568</v>
       </c>
       <c r="K151">
-        <v>-926.6082985114767</v>
+        <v>3983754.780836843</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5724,34 +5724,34 @@
         <v>66</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>34.38010447186647</v>
+        <v>1116402.727464767</v>
       </c>
       <c r="G152">
-        <v>480.1323475186218</v>
+        <v>4841734.104603863</v>
       </c>
       <c r="H152">
-        <v>2169.774805039657</v>
+        <v>3986297.812198169</v>
       </c>
       <c r="I152">
-        <v>548.5231679757617</v>
+        <v>1117165.708807633</v>
       </c>
       <c r="J152">
-        <v>-112.3853821367299</v>
+        <v>4841084.366627626</v>
       </c>
       <c r="K152">
-        <v>-1449.463730669775</v>
+        <v>3983407.184377017</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5759,34 +5759,34 @@
         <v>66</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>33.92487608814276</v>
+        <v>1116402.191825591</v>
       </c>
       <c r="G153">
-        <v>495.6484681871739</v>
+        <v>4841750.617418187</v>
       </c>
       <c r="H153">
-        <v>2178.778011480262</v>
+        <v>3986305.799780593</v>
       </c>
       <c r="I153">
-        <v>607.3942440416785</v>
+        <v>1117252.073741704</v>
       </c>
       <c r="J153">
-        <v>-151.2545931144134</v>
+        <v>4841035.715021685</v>
       </c>
       <c r="K153">
-        <v>-1995.105817462634</v>
+        <v>3983044.439254683</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5794,34 +5794,34 @@
         <v>66</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>33.48726093287975</v>
+        <v>1116401.676910815</v>
       </c>
       <c r="G154">
-        <v>511.164588855726</v>
+        <v>4841767.13023251</v>
       </c>
       <c r="H154">
-        <v>2187.547709138542</v>
+        <v>3986313.580195643</v>
       </c>
       <c r="I154">
-        <v>667.7149661953213</v>
+        <v>1117340.565332822</v>
       </c>
       <c r="J154">
-        <v>-190.1238040920966</v>
+        <v>4840987.063415742</v>
       </c>
       <c r="K154">
-        <v>-2563.534558890051</v>
+        <v>3982666.545469841</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5829,34 +5829,34 @@
         <v>66</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>33.06615197767253</v>
+        <v>1116401.181417867</v>
       </c>
       <c r="G155">
-        <v>526.6807095242782</v>
+        <v>4841783.643046833</v>
       </c>
       <c r="H155">
-        <v>2196.095705080912</v>
+        <v>3986321.163918464</v>
       </c>
       <c r="I155">
-        <v>729.5210306379513</v>
+        <v>1117431.23594796</v>
       </c>
       <c r="J155">
-        <v>-228.9930150697802</v>
+        <v>4840938.411809801</v>
       </c>
       <c r="K155">
-        <v>-3154.749954952033</v>
+        <v>3982273.503022492</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5864,34 +5864,34 @@
         <v>66</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>32.66053719950359</v>
+        <v>1116400.704155962</v>
       </c>
       <c r="G156">
-        <v>542.1968301928304</v>
+        <v>4841800.155861156</v>
       </c>
       <c r="H156">
-        <v>2204.432932898178</v>
+        <v>3986328.560649265</v>
       </c>
       <c r="I156">
-        <v>792.8490125569441</v>
+        <v>1117524.139243581</v>
       </c>
       <c r="J156">
-        <v>-267.8622260474638</v>
+        <v>4840889.760203859</v>
       </c>
       <c r="K156">
-        <v>-3768.752005648578</v>
+        <v>3981865.311912634</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5899,34 +5899,34 @@
         <v>66</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>32.2694893503993</v>
+        <v>1116400.244034064</v>
       </c>
       <c r="G157">
-        <v>557.7129508613824</v>
+        <v>4841816.668675479</v>
       </c>
       <c r="H157">
-        <v>2212.569536794617</v>
+        <v>3986335.779387912</v>
       </c>
       <c r="I157">
-        <v>857.7363877700169</v>
+        <v>1117619.330197387</v>
       </c>
       <c r="J157">
-        <v>-306.7314370251473</v>
+        <v>4840841.108597917</v>
       </c>
       <c r="K157">
-        <v>-4405.540710979683</v>
+        <v>3981441.972140269</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5934,34 +5934,34 @@
         <v>66</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>31.89215704183962</v>
+        <v>1116399.800050397</v>
       </c>
       <c r="G158">
-        <v>573.2290715299347</v>
+        <v>4841833.181489802</v>
       </c>
       <c r="H158">
-        <v>2220.514945795395</v>
+        <v>3986342.828499771</v>
       </c>
       <c r="I158">
-        <v>924.2215549024219</v>
+        <v>1117716.865140856</v>
       </c>
       <c r="J158">
-        <v>-345.6006480028309</v>
+        <v>4840792.456991975</v>
       </c>
       <c r="K158">
-        <v>-5065.116070945351</v>
+        <v>3981003.483705395</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5969,34 +5969,34 @@
         <v>66</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>31.52775694882182</v>
+        <v>1116399.371283272</v>
       </c>
       <c r="G159">
-        <v>588.7451921984868</v>
+        <v>4841849.694304125</v>
       </c>
       <c r="H159">
-        <v>2228.277939433872</v>
+        <v>3986349.715773983</v>
       </c>
       <c r="I159">
-        <v>992.3438581102284</v>
+        <v>1117816.801792578</v>
       </c>
       <c r="J159">
-        <v>-384.4698589805141</v>
+        <v>4840743.805386033</v>
       </c>
       <c r="K159">
-        <v>-5747.478085545575</v>
+        <v>3980549.846608013</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6004,34 +6004,34 @@
         <v>66</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>31.1755669711363</v>
+        <v>1116398.956883036</v>
       </c>
       <c r="G160">
-        <v>604.2613128670389</v>
+        <v>4841866.20711845</v>
       </c>
       <c r="H160">
-        <v>2235.86670606637</v>
+        <v>3986356.448475203</v>
       </c>
       <c r="I160">
-        <v>1062.143610363159</v>
+        <v>1117919.199292408</v>
       </c>
       <c r="J160">
-        <v>-423.3390699581976</v>
+        <v>4840695.153780091</v>
       </c>
       <c r="K160">
-        <v>-6452.626754780365</v>
+        <v>3980081.060848124</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6051,22 +6051,22 @@
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>270.1396121867818</v>
+        <v>1116580.037281458</v>
       </c>
       <c r="G161">
-        <v>-135.0734541802738</v>
+        <v>4841120.345780483</v>
       </c>
       <c r="H161">
-        <v>1054.607283358328</v>
+        <v>3985224.860951815</v>
       </c>
       <c r="I161">
-        <v>-1645.061067894749</v>
+        <v>1114862.398921429</v>
       </c>
       <c r="J161">
-        <v>864.802835530116</v>
+        <v>4843231.939095561</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984372.871840112</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6086,22 +6086,22 @@
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>270.1396121867818</v>
+        <v>1116580.037281458</v>
       </c>
       <c r="G162">
-        <v>-135.0734541802738</v>
+        <v>4841120.345780483</v>
       </c>
       <c r="H162">
-        <v>1054.607283358328</v>
+        <v>3985224.860951815</v>
       </c>
       <c r="I162">
-        <v>-1612.583182049013</v>
+        <v>1114892.012945558</v>
       </c>
       <c r="J162">
-        <v>843.765819800653</v>
+        <v>4843183.28742029</v>
       </c>
       <c r="K162">
-        <v>280.1372139705067</v>
+        <v>3984676.668026568</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6121,22 +6121,22 @@
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>270.1396121867818</v>
+        <v>1116580.037281458</v>
       </c>
       <c r="G163">
-        <v>-135.0734541802738</v>
+        <v>4841120.345780483</v>
       </c>
       <c r="H163">
-        <v>1054.607283358328</v>
+        <v>3985224.860951815</v>
       </c>
       <c r="I163">
-        <v>-1579.305558143433</v>
+        <v>1114922.356187787</v>
       </c>
       <c r="J163">
-        <v>822.7288040711901</v>
+        <v>4843134.635745016</v>
       </c>
       <c r="K163">
-        <v>546.3055023495542</v>
+        <v>3984965.315542617</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6156,22 +6156,22 @@
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>270.1396121867818</v>
+        <v>1116580.037281458</v>
       </c>
       <c r="G164">
-        <v>-135.0734541802738</v>
+        <v>4841120.345780483</v>
       </c>
       <c r="H164">
-        <v>1054.607283358328</v>
+        <v>3985224.860951815</v>
       </c>
       <c r="I164">
-        <v>-1545.208503364031</v>
+        <v>1114953.446604441</v>
       </c>
       <c r="J164">
-        <v>801.691788341727</v>
+        <v>4843085.984069743</v>
       </c>
       <c r="K164">
-        <v>798.5048651371445</v>
+        <v>3985238.814388257</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6191,22 +6191,22 @@
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>270.1396121867818</v>
+        <v>1116580.037281458</v>
       </c>
       <c r="G165">
-        <v>-135.0734541802738</v>
+        <v>4841120.345780483</v>
       </c>
       <c r="H165">
-        <v>1054.607283358328</v>
+        <v>3985224.860951815</v>
       </c>
       <c r="I165">
-        <v>-1510.271839979401</v>
+        <v>1114985.302594001</v>
       </c>
       <c r="J165">
-        <v>780.6547726122642</v>
+        <v>4843037.332394471</v>
       </c>
       <c r="K165">
-        <v>1036.735302333276</v>
+        <v>3985497.164563489</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6226,22 +6226,22 @@
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>270.1396121867818</v>
+        <v>1116580.037281458</v>
       </c>
       <c r="G166">
-        <v>-135.0734541802738</v>
+        <v>4841120.345780483</v>
       </c>
       <c r="H166">
-        <v>1054.607283358328</v>
+        <v>3985224.860951815</v>
       </c>
       <c r="I166">
-        <v>-1474.474893400065</v>
+        <v>1115017.943007998</v>
       </c>
       <c r="J166">
-        <v>759.6177568828011</v>
+        <v>4842988.680719199</v>
       </c>
       <c r="K166">
-        <v>1260.99681393795</v>
+        <v>3985740.366068312</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6261,22 +6261,22 @@
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>270.1396121867818</v>
+        <v>1116580.037281458</v>
       </c>
       <c r="G167">
-        <v>-135.0734541802738</v>
+        <v>4841120.345780483</v>
       </c>
       <c r="H167">
-        <v>1054.607283358328</v>
+        <v>3985224.860951815</v>
       </c>
       <c r="I167">
-        <v>-1437.796479943801</v>
+        <v>1115051.387162161</v>
       </c>
       <c r="J167">
-        <v>738.5807411533381</v>
+        <v>4842940.029043926</v>
       </c>
       <c r="K167">
-        <v>1471.289399951166</v>
+        <v>3985968.418902726</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6296,22 +6296,22 @@
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>270.1396121867818</v>
+        <v>1116580.037281458</v>
       </c>
       <c r="G168">
-        <v>-135.0734541802738</v>
+        <v>4841120.345780483</v>
       </c>
       <c r="H168">
-        <v>1054.607283358328</v>
+        <v>3985224.860951815</v>
       </c>
       <c r="I168">
-        <v>-1400.214894299697</v>
+        <v>1115085.654847852</v>
       </c>
       <c r="J168">
-        <v>717.5437254238751</v>
+        <v>4842891.377368653</v>
       </c>
       <c r="K168">
-        <v>1667.613060372924</v>
+        <v>3986181.323066732</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6331,22 +6331,22 @@
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>270.1396121867818</v>
+        <v>1116580.037281458</v>
       </c>
       <c r="G169">
-        <v>-112.7690248275114</v>
+        <v>4841136.858585308</v>
       </c>
       <c r="H169">
-        <v>1054.607283358328</v>
+        <v>3985224.860951815</v>
       </c>
       <c r="I169">
-        <v>-1361.707896683533</v>
+        <v>1115120.766343778</v>
       </c>
       <c r="J169">
-        <v>696.5067096944122</v>
+        <v>4842842.72569338</v>
       </c>
       <c r="K169">
-        <v>1849.967795203223</v>
+        <v>3986379.07856033</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6366,22 +6366,22 @@
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>209.6598525874427</v>
+        <v>1116531.356650834</v>
       </c>
       <c r="G170">
-        <v>-90.4645954747491</v>
+        <v>4841153.371390132</v>
       </c>
       <c r="H170">
-        <v>1299.269076586187</v>
+        <v>3985424.115185225</v>
       </c>
       <c r="I170">
-        <v>-1322.252699676858</v>
+        <v>1115156.742427988</v>
       </c>
       <c r="J170">
-        <v>675.4696939649492</v>
+        <v>4842794.074018109</v>
       </c>
       <c r="K170">
-        <v>2018.353604442064</v>
+        <v>3986561.685383519</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6401,22 +6401,22 @@
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>174.1310278150865</v>
+        <v>1116502.759222426</v>
       </c>
       <c r="G171">
-        <v>-68.16016612198679</v>
+        <v>4841169.884194957</v>
       </c>
       <c r="H171">
-        <v>1445.002153111831</v>
+        <v>3985542.801196893</v>
       </c>
       <c r="I171">
-        <v>-1281.82595474201</v>
+        <v>1115193.604390175</v>
       </c>
       <c r="J171">
-        <v>654.4326782354863</v>
+        <v>4842745.422342835</v>
       </c>
       <c r="K171">
-        <v>2172.770488089448</v>
+        <v>3986729.1435363</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6436,22 +6436,22 @@
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>151.7026270923121</v>
+        <v>1116484.706427601</v>
       </c>
       <c r="G172">
-        <v>-45.85573676922446</v>
+        <v>4841186.396999783</v>
       </c>
       <c r="H172">
-        <v>1549.147733182614</v>
+        <v>3985627.618067751</v>
       </c>
       <c r="I172">
-        <v>-1240.403738405064</v>
+        <v>1115231.374044269</v>
       </c>
       <c r="J172">
-        <v>633.3956625060232</v>
+        <v>4842696.770667563</v>
       </c>
       <c r="K172">
-        <v>2313.218446145374</v>
+        <v>3986881.453018672</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6471,22 +6471,22 @@
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>136.0611514704727</v>
+        <v>1116472.116481771</v>
       </c>
       <c r="G173">
-        <v>-23.55130741646213</v>
+        <v>4841202.909804607</v>
       </c>
       <c r="H173">
-        <v>1630.245840587697</v>
+        <v>3985693.664919647</v>
       </c>
       <c r="I173">
-        <v>-1197.961538098561</v>
+        <v>1115270.073741347</v>
       </c>
       <c r="J173">
-        <v>612.3586467765601</v>
+        <v>4842648.11899229</v>
       </c>
       <c r="K173">
-        <v>2439.697478609841</v>
+        <v>3987018.613830636</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6506,22 +6506,22 @@
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>124.3921422478296</v>
+        <v>1116462.724005156</v>
       </c>
       <c r="G174">
-        <v>-1.246878063699818</v>
+        <v>4841219.422609432</v>
       </c>
       <c r="H174">
-        <v>1696.671481095064</v>
+        <v>3985747.762414411</v>
       </c>
       <c r="I174">
-        <v>-1154.474237655619</v>
+        <v>1115309.726382862</v>
       </c>
       <c r="J174">
-        <v>591.3216310470973</v>
+        <v>4842599.467317019</v>
       </c>
       <c r="K174">
-        <v>2552.20758548285</v>
+        <v>3987140.625972191</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6541,22 +6541,22 @@
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>115.2686065645504</v>
+        <v>1116455.380400064</v>
       </c>
       <c r="G175">
-        <v>21.05755128906251</v>
+        <v>4841235.935414256</v>
       </c>
       <c r="H175">
-        <v>1752.929149768059</v>
+        <v>3985793.579043551</v>
       </c>
       <c r="I175">
-        <v>-1109.916102446853</v>
+        <v>1115350.355434195</v>
       </c>
       <c r="J175">
-        <v>570.2846153176342</v>
+        <v>4842550.815641745</v>
       </c>
       <c r="K175">
-        <v>2650.748766764401</v>
+        <v>3987247.489443338</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6576,22 +6576,22 @@
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>107.8870018903618</v>
+        <v>1116449.438888839</v>
       </c>
       <c r="G176">
-        <v>43.36198064182484</v>
+        <v>4841252.448219081</v>
       </c>
       <c r="H176">
-        <v>1801.722431293454</v>
+        <v>3985833.316624878</v>
       </c>
       <c r="I176">
-        <v>-1064.260764151303</v>
+        <v>1115391.98493854</v>
       </c>
       <c r="J176">
-        <v>549.2475995881713</v>
+        <v>4842502.163966472</v>
       </c>
       <c r="K176">
-        <v>2735.321022454494</v>
+        <v>3987339.204244076</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6611,22 +6611,22 @@
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>101.7576397976923</v>
+        <v>1116444.505317443</v>
       </c>
       <c r="G177">
-        <v>65.66640999458716</v>
+        <v>4841268.961023906</v>
       </c>
       <c r="H177">
-        <v>1844.80207060471</v>
+        <v>3985868.400977008</v>
       </c>
       <c r="I177">
-        <v>-1017.481205152367</v>
+        <v>1115434.63953113</v>
       </c>
       <c r="J177">
-        <v>528.2105838587083</v>
+        <v>4842453.5122912</v>
       </c>
       <c r="K177">
-        <v>2805.924352553129</v>
+        <v>3987415.770374406</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6646,22 +6646,22 @@
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>96.56346660135084</v>
+        <v>1116440.32448689</v>
       </c>
       <c r="G178">
-        <v>87.97083934734951</v>
+        <v>4841285.47382873</v>
       </c>
       <c r="H178">
-        <v>1883.3670166558</v>
+        <v>3985899.80853215</v>
       </c>
       <c r="I178">
-        <v>-969.5497425494862</v>
+        <v>1115478.344453821</v>
       </c>
       <c r="J178">
-        <v>507.1735681292453</v>
+        <v>4842404.860615928</v>
       </c>
       <c r="K178">
-        <v>2862.558757060306</v>
+        <v>3987477.187834328</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6681,22 +6681,22 @@
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>92.08919313814228</v>
+        <v>1116436.723109252</v>
       </c>
       <c r="G179">
-        <v>110.2752687001118</v>
+        <v>4841301.986633555</v>
       </c>
       <c r="H179">
-        <v>1918.274417813895</v>
+        <v>3985928.23735778</v>
       </c>
       <c r="I179">
-        <v>-920.4380117761468</v>
+        <v>1115523.125570026</v>
       </c>
       <c r="J179">
-        <v>486.1365523997823</v>
+        <v>4842356.208940655</v>
       </c>
       <c r="K179">
-        <v>2905.224235976025</v>
+        <v>3987523.456623841</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6716,22 +6716,22 @@
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>88.18292121129123</v>
+        <v>1116433.578920484</v>
       </c>
       <c r="G180">
-        <v>132.5796980528741</v>
+        <v>4841318.499438381</v>
       </c>
       <c r="H180">
-        <v>1950.15834296973</v>
+        <v>3985954.20384393</v>
       </c>
       <c r="I180">
-        <v>-870.1169498144781</v>
+        <v>1115569.009380019</v>
       </c>
       <c r="J180">
-        <v>465.0995366703193</v>
+        <v>4842307.557265382</v>
       </c>
       <c r="K180">
-        <v>2933.920789300285</v>
+        <v>3987554.576742945</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6751,22 +6751,22 @@
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>84.73405229964376</v>
+        <v>1116430.802898974</v>
       </c>
       <c r="G181">
-        <v>154.8841274056365</v>
+        <v>4841335.012243205</v>
       </c>
       <c r="H181">
-        <v>1979.501050394027</v>
+        <v>3985978.100745022</v>
       </c>
       <c r="I181">
-        <v>-818.5567779965311</v>
+        <v>1115616.023036621</v>
       </c>
       <c r="J181">
-        <v>444.0625209408564</v>
+        <v>4842258.90559011</v>
       </c>
       <c r="K181">
-        <v>2948.648417033088</v>
+        <v>3987570.548191641</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6786,22 +6786,22 @@
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>81.65991360494417</v>
+        <v>1116428.328500741</v>
       </c>
       <c r="G182">
-        <v>177.1885567583988</v>
+        <v>4841351.52504803</v>
       </c>
       <c r="H182">
-        <v>2006.677888776619</v>
+        <v>3986000.233747593</v>
       </c>
       <c r="I182">
-        <v>-765.7269843820553</v>
+        <v>1115664.194361265</v>
       </c>
       <c r="J182">
-        <v>423.0255052113934</v>
+        <v>4842210.253914838</v>
       </c>
       <c r="K182">
-        <v>2949.407119174432</v>
+        <v>3987571.370969929</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6821,22 +6821,22 @@
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>78.89731449210876</v>
+        <v>1116426.10486315</v>
       </c>
       <c r="G183">
-        <v>199.4929861111611</v>
+        <v>4841368.037852854</v>
       </c>
       <c r="H183">
-        <v>2031.986734711365</v>
+        <v>3986020.845444371</v>
       </c>
       <c r="I183">
-        <v>-711.5963057023424</v>
+        <v>1115713.551860462</v>
       </c>
       <c r="J183">
-        <v>401.9884894819303</v>
+        <v>4842161.602239564</v>
       </c>
       <c r="K183">
-        <v>2936.196895724318</v>
+        <v>3987557.045077808</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6856,22 +6856,22 @@
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>76.39702296347433</v>
+        <v>1116424.09235898</v>
       </c>
       <c r="G184">
-        <v>221.7974154639234</v>
+        <v>4841384.550657678</v>
       </c>
       <c r="H184">
-        <v>2055.667947483108</v>
+        <v>3986040.131585598</v>
       </c>
       <c r="I184">
-        <v>-656.1327088594522</v>
+        <v>1115764.124742668</v>
       </c>
       <c r="J184">
-        <v>380.9514737524674</v>
+        <v>4842112.950564292</v>
       </c>
       <c r="K184">
-        <v>2909.017746682747</v>
+        <v>3987527.570515278</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6891,22 +6891,22 @@
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>74.12004066848691</v>
+        <v>1116422.259598156</v>
       </c>
       <c r="G185">
-        <v>244.1018448166858</v>
+        <v>4841401.063462504</v>
       </c>
       <c r="H185">
-        <v>2077.918285923984</v>
+        <v>3986058.252413009</v>
       </c>
       <c r="I185">
-        <v>-599.3033719698795</v>
+        <v>1115815.942935572</v>
       </c>
       <c r="J185">
-        <v>359.9144580230044</v>
+        <v>4842064.29888902</v>
       </c>
       <c r="K185">
-        <v>2867.869672049717</v>
+        <v>3987482.94728234</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6926,22 +6926,22 @@
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>72.03502370617514</v>
+        <v>1116420.581351727</v>
       </c>
       <c r="G186">
-        <v>266.4062741694481</v>
+        <v>4841417.576267328</v>
       </c>
       <c r="H186">
-        <v>2098.900855144862</v>
+        <v>3986075.340760519</v>
       </c>
       <c r="I186">
-        <v>-541.0746649414326</v>
+        <v>1115869.037103805</v>
       </c>
       <c r="J186">
-        <v>338.8774422935414</v>
+        <v>4842015.647213747</v>
       </c>
       <c r="K186">
-        <v>2812.752671825229</v>
+        <v>3987423.175378994</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6961,22 +6961,22 @@
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>70.11645511992485</v>
+        <v>1116419.037080895</v>
       </c>
       <c r="G187">
-        <v>288.7107035222105</v>
+        <v>4841434.089072153</v>
       </c>
       <c r="H187">
-        <v>2118.752369184557</v>
+        <v>3986091.507968974</v>
       </c>
       <c r="I187">
-        <v>-481.4121295718386</v>
+        <v>1115923.438667085</v>
       </c>
       <c r="J187">
-        <v>317.8404265640784</v>
+        <v>4841966.995538474</v>
       </c>
       <c r="K187">
-        <v>2743.666746009284</v>
+        <v>3987348.254805239</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6996,22 +6996,22 @@
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>68.343323404657</v>
+        <v>1116417.609873336</v>
       </c>
       <c r="G188">
-        <v>311.0151328749728</v>
+        <v>4841450.601876978</v>
       </c>
       <c r="H188">
-        <v>2137.588554395973</v>
+        <v>3986106.848286705</v>
       </c>
       <c r="I188">
-        <v>-420.2804591572937</v>
+        <v>1115979.179818813</v>
       </c>
       <c r="J188">
-        <v>296.8034108346154</v>
+        <v>4841918.343863202</v>
       </c>
       <c r="K188">
-        <v>2660.61189460188</v>
+        <v>3987258.185561077</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7031,22 +7031,22 @@
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>66.69814949475369</v>
+        <v>1116416.285660013</v>
       </c>
       <c r="G189">
-        <v>333.319562227735</v>
+        <v>4841467.114681803</v>
       </c>
       <c r="H189">
-        <v>2155.508237029042</v>
+        <v>3986121.442198484</v>
       </c>
       <c r="I189">
-        <v>-357.6434775988964</v>
+        <v>1116036.29354512</v>
       </c>
       <c r="J189">
-        <v>275.7663951051524</v>
+        <v>4841869.69218793</v>
       </c>
       <c r="K189">
-        <v>2563.588117603017</v>
+        <v>3987152.967646505</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7066,22 +7066,22 @@
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>65.16625866594012</v>
+        <v>1116415.052629127</v>
       </c>
       <c r="G190">
-        <v>355.6239915804974</v>
+        <v>4841483.627486628</v>
       </c>
       <c r="H190">
-        <v>2172.596481720005</v>
+        <v>3986135.35898153</v>
       </c>
       <c r="I190">
-        <v>-293.4641179945901</v>
+        <v>1116094.813644394</v>
       </c>
       <c r="J190">
-        <v>254.7293793756895</v>
+        <v>4841821.040512656</v>
       </c>
       <c r="K190">
-        <v>2452.595415012697</v>
+        <v>3987032.601061525</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7101,22 +7101,22 @@
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>63.73522772566321</v>
+        <v>1116413.900781152</v>
       </c>
       <c r="G191">
-        <v>377.9284209332598</v>
+        <v>4841500.140291452</v>
       </c>
       <c r="H191">
-        <v>2188.927033636492</v>
+        <v>3986148.658694413</v>
       </c>
       <c r="I191">
-        <v>-227.704400703956</v>
+        <v>1116154.774747276</v>
       </c>
       <c r="J191">
-        <v>233.6923636462265</v>
+        <v>4841772.388837384</v>
       </c>
       <c r="K191">
-        <v>2327.633786830918</v>
+        <v>3986897.085806136</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7136,22 +7136,22 @@
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>62.39445973603276</v>
+        <v>1116412.82158653</v>
       </c>
       <c r="G192">
-        <v>400.232850286022</v>
+        <v>4841516.653096276</v>
       </c>
       <c r="H192">
-        <v>2204.564241826998</v>
+        <v>3986161.393743436</v>
       </c>
       <c r="I192">
-        <v>-160.3254108728702</v>
+        <v>1116216.212337152</v>
       </c>
       <c r="J192">
-        <v>212.6553479167635</v>
+        <v>4841723.737162111</v>
       </c>
       <c r="K192">
-        <v>2188.703233057683</v>
+        <v>3986746.421880339</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7171,22 +7171,22 @@
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>61.134852914556</v>
+        <v>1116411.807719167</v>
       </c>
       <c r="G193">
-        <v>422.5372796387844</v>
+        <v>4841533.165901102</v>
       </c>
       <c r="H193">
-        <v>2219.564590654311</v>
+        <v>3986173.610129848</v>
       </c>
       <c r="I193">
-        <v>-91.28727540472791</v>
+        <v>1116279.162771158</v>
       </c>
       <c r="J193">
-        <v>191.6183321873005</v>
+        <v>4841675.08548684</v>
       </c>
       <c r="K193">
-        <v>2035.803753692988</v>
+        <v>3986580.609284133</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7206,22 +7206,22 @@
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>59.9485400297512</v>
+        <v>1116410.852846665</v>
       </c>
       <c r="G194">
-        <v>444.8417089915467</v>
+        <v>4841549.678705926</v>
       </c>
       <c r="H194">
-        <v>2233.977931403738</v>
+        <v>3986185.348452878</v>
       </c>
       <c r="I194">
-        <v>-20.54913936460289</v>
+        <v>1116343.663301687</v>
       </c>
       <c r="J194">
-        <v>170.5813164578375</v>
+        <v>4841626.433811566</v>
       </c>
       <c r="K194">
-        <v>1868.935348736835</v>
+        <v>3986399.648017519</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7241,22 +7241,22 @@
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>58.82868122173144</v>
+        <v>1116409.951463569</v>
       </c>
       <c r="G195">
-        <v>467.1461383443091</v>
+        <v>4841566.191510751</v>
       </c>
       <c r="H195">
-        <v>2247.848481859903</v>
+        <v>3986196.64472379</v>
       </c>
       <c r="I195">
-        <v>51.93085819761854</v>
+        <v>1116409.752098442</v>
       </c>
       <c r="J195">
-        <v>149.5443007283746</v>
+        <v>4841577.782136294</v>
       </c>
       <c r="K195">
-        <v>1688.098018189225</v>
+        <v>3986203.538080497</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7276,22 +7276,22 @@
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>57.76929777403912</v>
+        <v>1116409.098757562</v>
       </c>
       <c r="G196">
-        <v>489.4505676970713</v>
+        <v>4841582.704315576</v>
       </c>
       <c r="H196">
-        <v>2261.215644409731</v>
+        <v>3986207.531032157</v>
       </c>
       <c r="I196">
-        <v>126.1956090194345</v>
+        <v>1116477.468271016</v>
       </c>
       <c r="J196">
-        <v>128.5072849989115</v>
+        <v>4841529.130461021</v>
       </c>
       <c r="K196">
-        <v>1493.291762050156</v>
+        <v>3985992.279473066</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7311,22 +7311,22 @@
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>56.76513760573467</v>
+        <v>1116408.290501204</v>
       </c>
       <c r="G197">
-        <v>511.7549970498337</v>
+        <v>4841599.2171204</v>
       </c>
       <c r="H197">
-        <v>2274.114680826291</v>
+        <v>3986218.036095408</v>
       </c>
       <c r="I197">
-        <v>202.2890610079204</v>
+        <v>1116546.851892042</v>
       </c>
       <c r="J197">
-        <v>107.4702692694486</v>
+        <v>4841480.478785749</v>
       </c>
       <c r="K197">
-        <v>1284.51658031963</v>
+        <v>3985765.872195227</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7346,22 +7346,22 @@
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>55.81156557241002</v>
+        <v>1116407.52296363</v>
       </c>
       <c r="G198">
-        <v>534.059426402596</v>
+        <v>4841615.729925225</v>
       </c>
       <c r="H198">
-        <v>2286.577272845146</v>
+        <v>3986228.185715364</v>
       </c>
       <c r="I198">
-        <v>280.2562442469297</v>
+        <v>1116617.944020904</v>
       </c>
       <c r="J198">
-        <v>86.43325353998559</v>
+        <v>4841431.827110476</v>
       </c>
       <c r="K198">
-        <v>1061.772472997644</v>
+        <v>3985524.316246978</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7381,22 +7381,22 @@
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>54.90447334544919</v>
+        <v>1116406.792838016</v>
       </c>
       <c r="G199">
-        <v>556.3638557553584</v>
+        <v>4841632.24273005</v>
       </c>
       <c r="H199">
-        <v>2298.631990971375</v>
+        <v>3986238.003160039</v>
       </c>
       <c r="I199">
-        <v>360.143297644707</v>
+        <v>1116690.786728036</v>
       </c>
       <c r="J199">
-        <v>65.39623781052256</v>
+        <v>4841383.175435203</v>
       </c>
       <c r="K199">
-        <v>825.0594400842012</v>
+        <v>3985267.611628322</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7416,22 +7416,22 @@
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>54.04020487100735</v>
+        <v>1116406.097181574</v>
       </c>
       <c r="G200">
-        <v>578.6682851081207</v>
+        <v>4841648.755534874</v>
       </c>
       <c r="H200">
-        <v>2310.304688974931</v>
+        <v>3986247.509484921</v>
       </c>
       <c r="I200">
-        <v>441.9974962376619</v>
+        <v>1116765.423119816</v>
       </c>
       <c r="J200">
-        <v>44.35922208105963</v>
+        <v>4841334.523759931</v>
       </c>
       <c r="K200">
-        <v>574.3774815793006</v>
+        <v>3984995.758339257</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7451,22 +7451,22 @@
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>53.21549432349472</v>
+        <v>1116405.433365616</v>
       </c>
       <c r="G201">
-        <v>600.9727144608829</v>
+        <v>4841665.268339699</v>
       </c>
       <c r="H201">
-        <v>2321.618837776231</v>
+        <v>3986256.723804886</v>
       </c>
       <c r="I201">
-        <v>525.8672791664882</v>
+        <v>1116841.897364081</v>
       </c>
       <c r="J201">
-        <v>23.32220635159661</v>
+        <v>4841285.872084659</v>
       </c>
       <c r="K201">
-        <v>309.726597482941</v>
+        <v>3984708.756379784</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7486,22 +7486,22 @@
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>52.42741415227804</v>
+        <v>1116404.799033734</v>
       </c>
       <c r="G202">
-        <v>623.2771438136454</v>
+        <v>4841681.781144525</v>
       </c>
       <c r="H202">
-        <v>2332.595809564065</v>
+        <v>3986265.663525592</v>
       </c>
       <c r="I202">
-        <v>611.8022783411506</v>
+        <v>1116920.254716255</v>
       </c>
       <c r="J202">
-        <v>2.285190622133591</v>
+        <v>4841237.220409386</v>
       </c>
       <c r="K202">
-        <v>31.10678779512357</v>
+        <v>3984406.605749903</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7521,22 +7521,22 @@
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>51.67333133739337</v>
+        <v>1116404.19206659</v>
       </c>
       <c r="G203">
-        <v>645.5815731664077</v>
+        <v>4841698.293949349</v>
       </c>
       <c r="H203">
-        <v>2343.255120790554</v>
+        <v>3986274.344541369</v>
       </c>
       <c r="I203">
-        <v>699.8533478117388</v>
+        <v>1117000.541546139</v>
       </c>
       <c r="J203">
-        <v>-18.75182510732933</v>
+        <v>4841188.568734113</v>
       </c>
       <c r="K203">
-        <v>-261.4819474841511</v>
+        <v>3984089.306449612</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7556,22 +7556,22 @@
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>50.95087036450123</v>
+        <v>1116403.610552113</v>
       </c>
       <c r="G204">
-        <v>667.8860025191699</v>
+        <v>4841714.806754174</v>
       </c>
       <c r="H204">
-        <v>2353.614640985163</v>
+        <v>3986282.781405285</v>
       </c>
       <c r="I204">
-        <v>790.072593862542</v>
+        <v>1117082.805365346</v>
       </c>
       <c r="J204">
-        <v>-39.78884083679235</v>
+        <v>4841139.91705884</v>
       </c>
       <c r="K204">
-        <v>-568.0396083548848</v>
+        <v>3983756.858478914</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7591,22 +7591,22 @@
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>50.25788173272992</v>
+        <v>1116403.052760154</v>
       </c>
       <c r="G205">
-        <v>690.1904318719323</v>
+        <v>4841731.319558998</v>
       </c>
       <c r="H205">
-        <v>2363.690772999951</v>
+        <v>3986290.987475934</v>
       </c>
       <c r="I205">
-        <v>882.5134058471625</v>
+        <v>1117167.09485542</v>
       </c>
       <c r="J205">
-        <v>-60.82585656625538</v>
+        <v>4841091.265383568</v>
       </c>
       <c r="K205">
-        <v>-888.5661948170772</v>
+        <v>3983409.261837807</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7626,22 +7626,22 @@
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>49.59241504430581</v>
+        <v>1116402.517120822</v>
       </c>
       <c r="G206">
-        <v>712.4948612246947</v>
+        <v>4841747.832363823</v>
       </c>
       <c r="H206">
-        <v>2373.498609251733</v>
+        <v>3986298.975044684</v>
       </c>
       <c r="I206">
-        <v>977.2304877829166</v>
+        <v>1117253.459896642</v>
       </c>
       <c r="J206">
-        <v>-81.8628722957184</v>
+        <v>4841042.613708295</v>
       </c>
       <c r="K206">
-        <v>-1223.061706870727</v>
+        <v>3983046.516526291</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7661,22 +7661,22 @@
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>48.95269590861627</v>
+        <v>1116402.002205895</v>
       </c>
       <c r="G207">
-        <v>734.7992905774569</v>
+        <v>4841764.345168648</v>
       </c>
       <c r="H207">
-        <v>2383.052067697619</v>
+        <v>3986306.755446412</v>
       </c>
       <c r="I207">
-        <v>1074.27989072322</v>
+        <v>1117341.95159755</v>
       </c>
       <c r="J207">
-        <v>-102.8998880251812</v>
+        <v>4840993.962033023</v>
       </c>
       <c r="K207">
-        <v>-1571.526144515833</v>
+        <v>3982668.622544367</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7696,22 +7696,22 @@
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>48.33710603788982</v>
+        <v>1116401.506712803</v>
       </c>
       <c r="G208">
-        <v>757.1037199302193</v>
+        <v>4841780.857973472</v>
       </c>
       <c r="H208">
-        <v>2392.364010618926</v>
+        <v>3986314.33915625</v>
       </c>
       <c r="I208">
-        <v>1173.719045927117</v>
+        <v>1117432.622325182</v>
       </c>
       <c r="J208">
-        <v>-123.9369037546442</v>
+        <v>4840945.31035775</v>
       </c>
       <c r="K208">
-        <v>-1933.959507752399</v>
+        <v>3982275.579892035</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7731,22 +7731,22 @@
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>47.74416602611807</v>
+        <v>1116401.029450759</v>
       </c>
       <c r="G209">
-        <v>779.4081492829816</v>
+        <v>4841797.370778297</v>
       </c>
       <c r="H209">
-        <v>2401.446348757566</v>
+        <v>3986321.735874388</v>
       </c>
       <c r="I209">
-        <v>1275.606798845563</v>
+        <v>1117525.525736066</v>
       </c>
       <c r="J209">
-        <v>-144.9739194841073</v>
+        <v>4840896.658682478</v>
       </c>
       <c r="K209">
-        <v>-2310.361796580423</v>
+        <v>3981867.388569293</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7766,22 +7766,22 @@
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>47.17252039402862</v>
+        <v>1116400.569328727</v>
       </c>
       <c r="G210">
-        <v>801.7125786357439</v>
+        <v>4841813.883583122</v>
       </c>
       <c r="H210">
-        <v>2410.310132920281</v>
+        <v>3986328.954600675</v>
       </c>
       <c r="I210">
-        <v>1380.003443944612</v>
+        <v>1117620.716807974</v>
       </c>
       <c r="J210">
-        <v>-166.0109352135703</v>
+        <v>4840848.007007205</v>
       </c>
       <c r="K210">
-        <v>-2700.733010999906</v>
+        <v>3981444.048576144</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7801,22 +7801,22 @@
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>46.62092455600408</v>
+        <v>1116400.125344931</v>
       </c>
       <c r="G211">
-        <v>824.0170079885063</v>
+        <v>4841830.396387947</v>
       </c>
       <c r="H211">
-        <v>2418.965634818095</v>
+        <v>3986336.003700466</v>
       </c>
       <c r="I211">
-        <v>1486.970760386074</v>
+        <v>1117718.251872453</v>
       </c>
       <c r="J211">
-        <v>-187.0479509430333</v>
+        <v>4840799.355331932</v>
       </c>
       <c r="K211">
-        <v>-3105.073151010846</v>
+        <v>3981005.559912586</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7836,22 +7836,22 @@
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>46.08823342374559</v>
+        <v>1116399.696577681</v>
       </c>
       <c r="G212">
-        <v>846.3214373412686</v>
+        <v>4841846.909192772</v>
       </c>
       <c r="H212">
-        <v>2427.422418624187</v>
+        <v>3986342.890962887</v>
       </c>
       <c r="I212">
-        <v>1596.572048586778</v>
+        <v>1117818.188648165</v>
       </c>
       <c r="J212">
-        <v>-208.0849666724961</v>
+        <v>4840750.70365666</v>
       </c>
       <c r="K212">
-        <v>-3523.382216613241</v>
+        <v>3980551.922578619</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7871,22 +7871,22 @@
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>45.57339140921779</v>
+        <v>1116399.282177324</v>
       </c>
       <c r="G213">
-        <v>868.6258666940308</v>
+        <v>4841863.421997597</v>
       </c>
       <c r="H213">
-        <v>2435.689404500335</v>
+        <v>3986349.62365258</v>
       </c>
       <c r="I213">
-        <v>1708.872167678089</v>
+        <v>1117920.586275038</v>
       </c>
       <c r="J213">
-        <v>-229.1219824019592</v>
+        <v>4840702.051981387</v>
       </c>
       <c r="K213">
-        <v>-3955.660207807098</v>
+        <v>3980083.136574245</v>
       </c>
     </row>
   </sheetData>
